--- a/sentiment_scores.xlsx
+++ b/sentiment_scores.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E561"/>
+  <dimension ref="A1:E937"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12220,6 +12220,7902 @@
         <v>0.6574628273646037</v>
       </c>
     </row>
+    <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>MCHP</t>
+        </is>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>sec_MCHP_2023-11-02</t>
+        </is>
+      </c>
+      <c r="C562" t="n">
+        <v>0.20126639101012</v>
+      </c>
+      <c r="D562" t="n">
+        <v>0.05758924319826324</v>
+      </c>
+      <c r="E562" t="n">
+        <v>0.6764100913343758</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>MCHP</t>
+        </is>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>sec_MCHP_2023-08-03</t>
+        </is>
+      </c>
+      <c r="C563" t="n">
+        <v>0.1983013938520556</v>
+      </c>
+      <c r="D563" t="n">
+        <v>0.07472417232032134</v>
+      </c>
+      <c r="E563" t="n">
+        <v>0.6617554732572253</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>MCHP</t>
+        </is>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>sec_MCHP_2023-02-02</t>
+        </is>
+      </c>
+      <c r="C564" t="n">
+        <v>0.2088566816278866</v>
+      </c>
+      <c r="D564" t="n">
+        <v>0.05347263600145068</v>
+      </c>
+      <c r="E564" t="n">
+        <v>0.6878277797784124</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>MCHP</t>
+        </is>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>sec_MCHP_2022-11-03</t>
+        </is>
+      </c>
+      <c r="C565" t="n">
+        <v>0.2418371401391588</v>
+      </c>
+      <c r="D565" t="n">
+        <v>0.05620513735590754</v>
+      </c>
+      <c r="E565" t="n">
+        <v>0.6547437369286477</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>MCHP</t>
+        </is>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>sec_MCHP_2022-08-02</t>
+        </is>
+      </c>
+      <c r="C566" t="n">
+        <v>0.2291388149113999</v>
+      </c>
+      <c r="D566" t="n">
+        <v>0.06086675653752593</v>
+      </c>
+      <c r="E566" t="n">
+        <v>0.6589498771834619</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>MCHP</t>
+        </is>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>sec_MCHP_2022-02-03</t>
+        </is>
+      </c>
+      <c r="C567" t="n">
+        <v>0.1799609651410483</v>
+      </c>
+      <c r="D567" t="n">
+        <v>0.06421488959614824</v>
+      </c>
+      <c r="E567" t="n">
+        <v>0.7068000610281782</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>MCHP</t>
+        </is>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>sec_MCHP_2021-11-04</t>
+        </is>
+      </c>
+      <c r="C568" t="n">
+        <v>0.2061851911308352</v>
+      </c>
+      <c r="D568" t="n">
+        <v>0.05890657635759716</v>
+      </c>
+      <c r="E568" t="n">
+        <v>0.6738390003846697</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>MCHP</t>
+        </is>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>sec_MCHP_2021-08-03</t>
+        </is>
+      </c>
+      <c r="C569" t="n">
+        <v>0.196528360247612</v>
+      </c>
+      <c r="D569" t="n">
+        <v>0.08728043514269369</v>
+      </c>
+      <c r="E569" t="n">
+        <v>0.6613715776690731</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>MCHP</t>
+        </is>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>sec_MCHP_2021-02-04</t>
+        </is>
+      </c>
+      <c r="C570" t="n">
+        <v>0.1744132684150212</v>
+      </c>
+      <c r="D570" t="n">
+        <v>0.09684704600925177</v>
+      </c>
+      <c r="E570" t="n">
+        <v>0.6832593440170019</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>KDP</t>
+        </is>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>sec_KDP_2024-04-25</t>
+        </is>
+      </c>
+      <c r="C571" t="n">
+        <v>0.2428152018359729</v>
+      </c>
+      <c r="D571" t="n">
+        <v>0.08113362107958112</v>
+      </c>
+      <c r="E571" t="n">
+        <v>0.6451252635036197</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>KDP</t>
+        </is>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>sec_KDP_2023-10-26</t>
+        </is>
+      </c>
+      <c r="C572" t="n">
+        <v>0.2210314134498695</v>
+      </c>
+      <c r="D572" t="n">
+        <v>0.063627635116701</v>
+      </c>
+      <c r="E572" t="n">
+        <v>0.6886201558949111</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>KDP</t>
+        </is>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>sec_KDP_2023-07-27</t>
+        </is>
+      </c>
+      <c r="C573" t="n">
+        <v>0.1993022490021409</v>
+      </c>
+      <c r="D573" t="n">
+        <v>0.06540176844754755</v>
+      </c>
+      <c r="E573" t="n">
+        <v>0.7097610503632501</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>KDP</t>
+        </is>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>sec_KDP_2023-04-27</t>
+        </is>
+      </c>
+      <c r="C574" t="n">
+        <v>0.1406971300491179</v>
+      </c>
+      <c r="D574" t="n">
+        <v>0.1159073722482932</v>
+      </c>
+      <c r="E574" t="n">
+        <v>0.7127986447979705</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="inlineStr">
+        <is>
+          <t>KDP</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>sec_KDP_2022-10-27</t>
+        </is>
+      </c>
+      <c r="C575" t="n">
+        <v>0.1856871492522103</v>
+      </c>
+      <c r="D575" t="n">
+        <v>0.09005905900682722</v>
+      </c>
+      <c r="E575" t="n">
+        <v>0.6832222090448652</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>KDP</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>sec_KDP_2022-07-28</t>
+        </is>
+      </c>
+      <c r="C576" t="n">
+        <v>0.2359839851936598</v>
+      </c>
+      <c r="D576" t="n">
+        <v>0.07528321763102928</v>
+      </c>
+      <c r="E576" t="n">
+        <v>0.6510346377833506</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>KDP</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>sec_KDP_2022-04-28</t>
+        </is>
+      </c>
+      <c r="C577" t="n">
+        <v>0.1848623895012172</v>
+      </c>
+      <c r="D577" t="n">
+        <v>0.07006538283508436</v>
+      </c>
+      <c r="E577" t="n">
+        <v>0.7109383033440176</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="inlineStr">
+        <is>
+          <t>KDP</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>sec_KDP_2021-10-28</t>
+        </is>
+      </c>
+      <c r="C578" t="n">
+        <v>0.1231298625469208</v>
+      </c>
+      <c r="D578" t="n">
+        <v>0.06627722183863322</v>
+      </c>
+      <c r="E578" t="n">
+        <v>0.7777309636274974</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>KDP</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>sec_KDP_2021-07-29</t>
+        </is>
+      </c>
+      <c r="C579" t="n">
+        <v>0.269017454278603</v>
+      </c>
+      <c r="D579" t="n">
+        <v>0.06433656409885107</v>
+      </c>
+      <c r="E579" t="n">
+        <v>0.636433695809225</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>KDP</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>sec_KDP_2021-04-29</t>
+        </is>
+      </c>
+      <c r="C580" t="n">
+        <v>0.2014617207257644</v>
+      </c>
+      <c r="D580" t="n">
+        <v>0.1094620128472646</v>
+      </c>
+      <c r="E580" t="n">
+        <v>0.655511885881424</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>ODFL</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>sec_ODFL_2024-05-07</t>
+        </is>
+      </c>
+      <c r="C581" t="n">
+        <v>0.1524161539143986</v>
+      </c>
+      <c r="D581" t="n">
+        <v>0.0825249089135064</v>
+      </c>
+      <c r="E581" t="n">
+        <v>0.7059896207518048</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>ODFL</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>sec_ODFL_2023-11-06</t>
+        </is>
+      </c>
+      <c r="C582" t="n">
+        <v>0.099213282518749</v>
+      </c>
+      <c r="D582" t="n">
+        <v>0.1499216835710067</v>
+      </c>
+      <c r="E582" t="n">
+        <v>0.675470384615886</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>ODFL</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>sec_ODFL_2023-08-04</t>
+        </is>
+      </c>
+      <c r="C583" t="n">
+        <v>0.1030107132800214</v>
+      </c>
+      <c r="D583" t="n">
+        <v>0.17107378584998</v>
+      </c>
+      <c r="E583" t="n">
+        <v>0.6663695867959555</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>ODFL</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>sec_ODFL_2023-05-08</t>
+        </is>
+      </c>
+      <c r="C584" t="n">
+        <v>0.07892523013370138</v>
+      </c>
+      <c r="D584" t="n">
+        <v>0.169300806354469</v>
+      </c>
+      <c r="E584" t="n">
+        <v>0.6873355919206646</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>ODFL</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>sec_ODFL_2022-11-03</t>
+        </is>
+      </c>
+      <c r="C585" t="n">
+        <v>0.1767236491044362</v>
+      </c>
+      <c r="D585" t="n">
+        <v>0.1055634549030891</v>
+      </c>
+      <c r="E585" t="n">
+        <v>0.6474445958932241</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>ODFL</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>sec_ODFL_2022-08-03</t>
+        </is>
+      </c>
+      <c r="C586" t="n">
+        <v>0.176105166736402</v>
+      </c>
+      <c r="D586" t="n">
+        <v>0.1021851810969805</v>
+      </c>
+      <c r="E586" t="n">
+        <v>0.6616000901711615</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>ODFL</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>sec_ODFL_2022-05-04</t>
+        </is>
+      </c>
+      <c r="C587" t="n">
+        <v>0.1874486397613179</v>
+      </c>
+      <c r="D587" t="n">
+        <v>0.08939972384409471</v>
+      </c>
+      <c r="E587" t="n">
+        <v>0.6326252201741392</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="inlineStr">
+        <is>
+          <t>ODFL</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>sec_ODFL_2021-11-03</t>
+        </is>
+      </c>
+      <c r="C588" t="n">
+        <v>0.1686487248603334</v>
+      </c>
+      <c r="D588" t="n">
+        <v>0.1543625605867264</v>
+      </c>
+      <c r="E588" t="n">
+        <v>0.6064117550849915</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="inlineStr">
+        <is>
+          <t>ODFL</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>sec_ODFL_2021-08-05</t>
+        </is>
+      </c>
+      <c r="C589" t="n">
+        <v>0.1731714936702148</v>
+      </c>
+      <c r="D589" t="n">
+        <v>0.1350810573152874</v>
+      </c>
+      <c r="E589" t="n">
+        <v>0.6225574871768123</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="inlineStr">
+        <is>
+          <t>ODFL</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>sec_ODFL_2021-05-04</t>
+        </is>
+      </c>
+      <c r="C590" t="n">
+        <v>0.17311956023061</v>
+      </c>
+      <c r="D590" t="n">
+        <v>0.1552086687365244</v>
+      </c>
+      <c r="E590" t="n">
+        <v>0.5888187434784201</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="inlineStr">
+        <is>
+          <t>PAYX</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>sec_PAYX_2024-04-02</t>
+        </is>
+      </c>
+      <c r="C591" t="n">
+        <v>0.1172809951835209</v>
+      </c>
+      <c r="D591" t="n">
+        <v>0.1116305139329698</v>
+      </c>
+      <c r="E591" t="n">
+        <v>0.7413454572359721</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="inlineStr">
+        <is>
+          <t>PAYX</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>sec_PAYX_2023-12-21</t>
+        </is>
+      </c>
+      <c r="C592" t="n">
+        <v>0.1373486880506023</v>
+      </c>
+      <c r="D592" t="n">
+        <v>0.1129436191548122</v>
+      </c>
+      <c r="E592" t="n">
+        <v>0.719527811146854</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="inlineStr">
+        <is>
+          <t>PAYX</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>sec_PAYX_2023-09-28</t>
+        </is>
+      </c>
+      <c r="C593" t="n">
+        <v>0.1325370371341705</v>
+      </c>
+      <c r="D593" t="n">
+        <v>0.09445703247698342</v>
+      </c>
+      <c r="E593" t="n">
+        <v>0.7302551611167628</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="inlineStr">
+        <is>
+          <t>PAYX</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>sec_PAYX_2023-03-30</t>
+        </is>
+      </c>
+      <c r="C594" t="n">
+        <v>0.1135804037471394</v>
+      </c>
+      <c r="D594" t="n">
+        <v>0.09853616455099085</v>
+      </c>
+      <c r="E594" t="n">
+        <v>0.7505099688257489</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="inlineStr">
+        <is>
+          <t>PAYX</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>sec_PAYX_2022-12-22</t>
+        </is>
+      </c>
+      <c r="C595" t="n">
+        <v>0.1332451694151934</v>
+      </c>
+      <c r="D595" t="n">
+        <v>0.1090200319009669</v>
+      </c>
+      <c r="E595" t="n">
+        <v>0.7177702763501336</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="inlineStr">
+        <is>
+          <t>PAYX</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>sec_PAYX_2022-09-29</t>
+        </is>
+      </c>
+      <c r="C596" t="n">
+        <v>0.1459165539270566</v>
+      </c>
+      <c r="D596" t="n">
+        <v>0.05688822931713528</v>
+      </c>
+      <c r="E596" t="n">
+        <v>0.7561907238430448</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="inlineStr">
+        <is>
+          <t>PAYX</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>sec_PAYX_2022-03-31</t>
+        </is>
+      </c>
+      <c r="C597" t="n">
+        <v>0.1764154147868063</v>
+      </c>
+      <c r="D597" t="n">
+        <v>0.08053356000021392</v>
+      </c>
+      <c r="E597" t="n">
+        <v>0.7072140866634893</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="inlineStr">
+        <is>
+          <t>PAYX</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>sec_PAYX_2021-12-22</t>
+        </is>
+      </c>
+      <c r="C598" t="n">
+        <v>0.1748733478363114</v>
+      </c>
+      <c r="D598" t="n">
+        <v>0.08281630277633667</v>
+      </c>
+      <c r="E598" t="n">
+        <v>0.7069089256151758</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="inlineStr">
+        <is>
+          <t>PAYX</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>sec_PAYX_2021-10-01</t>
+        </is>
+      </c>
+      <c r="C599" t="n">
+        <v>0.1754265876160455</v>
+      </c>
+      <c r="D599" t="n">
+        <v>0.07767922730789971</v>
+      </c>
+      <c r="E599" t="n">
+        <v>0.703633047870754</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="inlineStr">
+        <is>
+          <t>PAYX</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>sec_PAYX_2021-04-07</t>
+        </is>
+      </c>
+      <c r="C600" t="n">
+        <v>0.1383154088800604</v>
+      </c>
+      <c r="D600" t="n">
+        <v>0.128651257536628</v>
+      </c>
+      <c r="E600" t="n">
+        <v>0.6873027324676514</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="inlineStr">
+        <is>
+          <t>ROST</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>sec_ROST_2023-12-06</t>
+        </is>
+      </c>
+      <c r="C601" t="n">
+        <v>0.1240868619803725</v>
+      </c>
+      <c r="D601" t="n">
+        <v>0.1632258285736216</v>
+      </c>
+      <c r="E601" t="n">
+        <v>0.6427202543307995</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="inlineStr">
+        <is>
+          <t>ROST</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>sec_ROST_2023-09-06</t>
+        </is>
+      </c>
+      <c r="C602" t="n">
+        <v>0.1143172404222321</v>
+      </c>
+      <c r="D602" t="n">
+        <v>0.1525555922274004</v>
+      </c>
+      <c r="E602" t="n">
+        <v>0.6874386741403948</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="inlineStr">
+        <is>
+          <t>ROST</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>sec_ROST_2023-06-07</t>
+        </is>
+      </c>
+      <c r="C603" t="n">
+        <v>0.1215938501633131</v>
+      </c>
+      <c r="D603" t="n">
+        <v>0.1632123440504074</v>
+      </c>
+      <c r="E603" t="n">
+        <v>0.6677026668420205</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="inlineStr">
+        <is>
+          <t>ROST</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>sec_ROST_2022-12-07</t>
+        </is>
+      </c>
+      <c r="C604" t="n">
+        <v>0.01311194621599637</v>
+      </c>
+      <c r="D604" t="n">
+        <v>0.24238824064915</v>
+      </c>
+      <c r="E604" t="n">
+        <v>0.6525486845236558</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="inlineStr">
+        <is>
+          <t>ROST</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>sec_ROST_2022-09-07</t>
+        </is>
+      </c>
+      <c r="C605" t="n">
+        <v>0.02621291509041419</v>
+      </c>
+      <c r="D605" t="n">
+        <v>0.278081648166363</v>
+      </c>
+      <c r="E605" t="n">
+        <v>0.6348457428125235</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="inlineStr">
+        <is>
+          <t>ROST</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>sec_ROST_2022-06-08</t>
+        </is>
+      </c>
+      <c r="C606" t="n">
+        <v>0</v>
+      </c>
+      <c r="D606" t="n">
+        <v>0.2935932793859708</v>
+      </c>
+      <c r="E606" t="n">
+        <v>0.6691388770685358</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="inlineStr">
+        <is>
+          <t>ROST</t>
+        </is>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>sec_ROST_2021-12-08</t>
+        </is>
+      </c>
+      <c r="C607" t="n">
+        <v>0.1939731786125585</v>
+      </c>
+      <c r="D607" t="n">
+        <v>0.1611256084944072</v>
+      </c>
+      <c r="E607" t="n">
+        <v>0.6038781875058225</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="inlineStr">
+        <is>
+          <t>ROST</t>
+        </is>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>sec_ROST_2021-09-08</t>
+        </is>
+      </c>
+      <c r="C608" t="n">
+        <v>0.2150609923733605</v>
+      </c>
+      <c r="D608" t="n">
+        <v>0.124069822496838</v>
+      </c>
+      <c r="E608" t="n">
+        <v>0.6115999923812019</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="inlineStr">
+        <is>
+          <t>ROST</t>
+        </is>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>sec_ROST_2021-06-09</t>
+        </is>
+      </c>
+      <c r="C609" t="n">
+        <v>0.174189567565918</v>
+      </c>
+      <c r="D609" t="n">
+        <v>0.09567862070059474</v>
+      </c>
+      <c r="E609" t="n">
+        <v>0.6864478557924681</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="inlineStr">
+        <is>
+          <t>ROST</t>
+        </is>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>sec_ROST_2020-12-09</t>
+        </is>
+      </c>
+      <c r="C610" t="n">
+        <v>0.1328333541750908</v>
+      </c>
+      <c r="D610" t="n">
+        <v>0.28375778781871</v>
+      </c>
+      <c r="E610" t="n">
+        <v>0.5236532079676787</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="inlineStr">
+        <is>
+          <t>KHC</t>
+        </is>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>sec_KHC_2024-05-01</t>
+        </is>
+      </c>
+      <c r="C611" t="n">
+        <v>0.08868972652701922</v>
+      </c>
+      <c r="D611" t="n">
+        <v>0.1239678058572995</v>
+      </c>
+      <c r="E611" t="n">
+        <v>0.7649828906982176</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="inlineStr">
+        <is>
+          <t>KHC</t>
+        </is>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>sec_KHC_2023-11-01</t>
+        </is>
+      </c>
+      <c r="C612" t="n">
+        <v>0.1331262376484455</v>
+      </c>
+      <c r="D612" t="n">
+        <v>0.10075943942038</v>
+      </c>
+      <c r="E612" t="n">
+        <v>0.7359045443918881</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="inlineStr">
+        <is>
+          <t>KHC</t>
+        </is>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>sec_KHC_2023-08-02</t>
+        </is>
+      </c>
+      <c r="C613" t="n">
+        <v>0.2059339678893655</v>
+      </c>
+      <c r="D613" t="n">
+        <v>0.03600169591984506</v>
+      </c>
+      <c r="E613" t="n">
+        <v>0.7303566887217053</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="inlineStr">
+        <is>
+          <t>KHC</t>
+        </is>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>sec_KHC_2023-05-03</t>
+        </is>
+      </c>
+      <c r="C614" t="n">
+        <v>0.1449738379274861</v>
+      </c>
+      <c r="D614" t="n">
+        <v>0.06634056099345174</v>
+      </c>
+      <c r="E614" t="n">
+        <v>0.7606352453821161</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>KHC</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>sec_KHC_2022-10-27</t>
+        </is>
+      </c>
+      <c r="C615" t="n">
+        <v>0.06613276450911913</v>
+      </c>
+      <c r="D615" t="n">
+        <v>0.1753178754467174</v>
+      </c>
+      <c r="E615" t="n">
+        <v>0.7188100013996195</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>KHC</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>sec_KHC_2022-07-28</t>
+        </is>
+      </c>
+      <c r="C616" t="n">
+        <v>0.06752583179622888</v>
+      </c>
+      <c r="D616" t="n">
+        <v>0.1904876008629799</v>
+      </c>
+      <c r="E616" t="n">
+        <v>0.7134404815733433</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>KHC</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>sec_KHC_2022-04-28</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>0.0953399567928129</v>
+      </c>
+      <c r="D617" t="n">
+        <v>0.1604068302413792</v>
+      </c>
+      <c r="E617" t="n">
+        <v>0.7076667738192289</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>KHC</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>sec_KHC_2021-10-28</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>0.1143197120796323</v>
+      </c>
+      <c r="D618" t="n">
+        <v>0.1473916407030914</v>
+      </c>
+      <c r="E618" t="n">
+        <v>0.687336919351398</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>KHC</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>sec_KHC_2021-08-04</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>0.1051010631066001</v>
+      </c>
+      <c r="D619" t="n">
+        <v>0.1544031408610265</v>
+      </c>
+      <c r="E619" t="n">
+        <v>0.6984052055448459</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>KHC</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>sec_KHC_2021-04-30</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>0.1275864290676529</v>
+      </c>
+      <c r="D620" t="n">
+        <v>0.119821247008207</v>
+      </c>
+      <c r="E620" t="n">
+        <v>0.7105842854479234</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>FTNT</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>sec_FTNT_2024-05-06</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>0.1940247127325228</v>
+      </c>
+      <c r="D621" t="n">
+        <v>0.09219469587401588</v>
+      </c>
+      <c r="E621" t="n">
+        <v>0.6387845767606602</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="inlineStr">
+        <is>
+          <t>FTNT</t>
+        </is>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>sec_FTNT_2023-11-07</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>0.2476676422816056</v>
+      </c>
+      <c r="D622" t="n">
+        <v>0.08375400006771087</v>
+      </c>
+      <c r="E622" t="n">
+        <v>0.5919434286080874</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="inlineStr">
+        <is>
+          <t>FTNT</t>
+        </is>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>sec_FTNT_2023-08-07</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>0.3175636189989746</v>
+      </c>
+      <c r="D623" t="n">
+        <v>0.05610361602157354</v>
+      </c>
+      <c r="E623" t="n">
+        <v>0.5524430419318378</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="inlineStr">
+        <is>
+          <t>FTNT</t>
+        </is>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>sec_FTNT_2023-05-08</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>0.2839904036184754</v>
+      </c>
+      <c r="D624" t="n">
+        <v>0.05705749747729061</v>
+      </c>
+      <c r="E624" t="n">
+        <v>0.6150709619425764</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="inlineStr">
+        <is>
+          <t>FTNT</t>
+        </is>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>sec_FTNT_2022-11-07</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>0.2762496013876418</v>
+      </c>
+      <c r="D625" t="n">
+        <v>0.06956694495510048</v>
+      </c>
+      <c r="E625" t="n">
+        <v>0.5962432864266383</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="inlineStr">
+        <is>
+          <t>FTNT</t>
+        </is>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>sec_FTNT_2022-08-05</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>0.2248547206110988</v>
+      </c>
+      <c r="D626" t="n">
+        <v>0.07486219735855752</v>
+      </c>
+      <c r="E626" t="n">
+        <v>0.6050360204902947</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="inlineStr">
+        <is>
+          <t>FTNT</t>
+        </is>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>sec_FTNT_2022-05-06</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>0.1912109611231253</v>
+      </c>
+      <c r="D627" t="n">
+        <v>0.0855338157863792</v>
+      </c>
+      <c r="E627" t="n">
+        <v>0.6740692859395928</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="inlineStr">
+        <is>
+          <t>FTNT</t>
+        </is>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>sec_FTNT_2021-11-08</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>0.2338006200565808</v>
+      </c>
+      <c r="D628" t="n">
+        <v>0.03887043569398963</v>
+      </c>
+      <c r="E628" t="n">
+        <v>0.6656977668188621</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="inlineStr">
+        <is>
+          <t>FTNT</t>
+        </is>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>sec_FTNT_2021-08-02</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>0.2104789125733078</v>
+      </c>
+      <c r="D629" t="n">
+        <v>0.04967746045440435</v>
+      </c>
+      <c r="E629" t="n">
+        <v>0.6799515399616212</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="inlineStr">
+        <is>
+          <t>FTNT</t>
+        </is>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>sec_FTNT_2021-05-03</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>0.1597790918727912</v>
+      </c>
+      <c r="D630" t="n">
+        <v>0.05748216940624879</v>
+      </c>
+      <c r="E630" t="n">
+        <v>0.7300085035881193</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="inlineStr">
+        <is>
+          <t>DXCM</t>
+        </is>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>sec_DXCM_2024-04-25</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>0</v>
+      </c>
+      <c r="D631" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E631" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="inlineStr">
+        <is>
+          <t>DXCM</t>
+        </is>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>sec_DXCM_2023-10-26</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>0</v>
+      </c>
+      <c r="D632" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E632" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="inlineStr">
+        <is>
+          <t>DXCM</t>
+        </is>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>sec_DXCM_2023-07-27</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>0</v>
+      </c>
+      <c r="D633" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E633" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="inlineStr">
+        <is>
+          <t>DXCM</t>
+        </is>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>sec_DXCM_2023-04-27</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>0</v>
+      </c>
+      <c r="D634" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E634" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="inlineStr">
+        <is>
+          <t>DXCM</t>
+        </is>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>sec_DXCM_2022-10-27</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>0</v>
+      </c>
+      <c r="D635" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E635" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="inlineStr">
+        <is>
+          <t>DXCM</t>
+        </is>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>sec_DXCM_2022-07-28</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>0</v>
+      </c>
+      <c r="D636" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E636" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="inlineStr">
+        <is>
+          <t>DXCM</t>
+        </is>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>sec_DXCM_2022-04-28</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>0</v>
+      </c>
+      <c r="D637" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E637" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="inlineStr">
+        <is>
+          <t>DXCM</t>
+        </is>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>sec_DXCM_2021-10-28</t>
+        </is>
+      </c>
+      <c r="C638" t="n">
+        <v>0</v>
+      </c>
+      <c r="D638" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E638" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="inlineStr">
+        <is>
+          <t>DXCM</t>
+        </is>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>sec_DXCM_2021-07-29</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>0</v>
+      </c>
+      <c r="D639" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E639" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="inlineStr">
+        <is>
+          <t>DXCM</t>
+        </is>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>sec_DXCM_2021-04-29</t>
+        </is>
+      </c>
+      <c r="C640" t="n">
+        <v>0</v>
+      </c>
+      <c r="D640" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E640" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="inlineStr">
+        <is>
+          <t>EXC</t>
+        </is>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>sec_EXC_2024-05-02</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>0.02414361266639289</v>
+      </c>
+      <c r="D641" t="n">
+        <v>0.01648073806537418</v>
+      </c>
+      <c r="E641" t="n">
+        <v>0.942445479227802</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="inlineStr">
+        <is>
+          <t>EXC</t>
+        </is>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>sec_EXC_2023-11-02</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>0.02473507736254842</v>
+      </c>
+      <c r="D642" t="n">
+        <v>0.01777933405464953</v>
+      </c>
+      <c r="E642" t="n">
+        <v>0.9398131307745387</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="inlineStr">
+        <is>
+          <t>EXC</t>
+        </is>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>sec_EXC_2023-08-02</t>
+        </is>
+      </c>
+      <c r="C643" t="n">
+        <v>0.01998992245117619</v>
+      </c>
+      <c r="D643" t="n">
+        <v>0.0191119104087506</v>
+      </c>
+      <c r="E643" t="n">
+        <v>0.9444294295304845</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="inlineStr">
+        <is>
+          <t>EXC</t>
+        </is>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>sec_EXC_2023-05-03</t>
+        </is>
+      </c>
+      <c r="C644" t="n">
+        <v>0.02663773433115687</v>
+      </c>
+      <c r="D644" t="n">
+        <v>0.01111967032311729</v>
+      </c>
+      <c r="E644" t="n">
+        <v>0.9460590787422962</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="inlineStr">
+        <is>
+          <t>EXC</t>
+        </is>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>sec_EXC_2022-11-03</t>
+        </is>
+      </c>
+      <c r="C645" t="n">
+        <v>0.02726140201017907</v>
+      </c>
+      <c r="D645" t="n">
+        <v>0.009359682802817192</v>
+      </c>
+      <c r="E645" t="n">
+        <v>0.9464502486376071</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="inlineStr">
+        <is>
+          <t>EXC</t>
+        </is>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>sec_EXC_2022-08-03</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>0.02233690497101537</v>
+      </c>
+      <c r="D646" t="n">
+        <v>0.0174217574643773</v>
+      </c>
+      <c r="E646" t="n">
+        <v>0.9446522908494962</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="inlineStr">
+        <is>
+          <t>EXC</t>
+        </is>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>sec_EXC_2022-05-09</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>0.01911952400964404</v>
+      </c>
+      <c r="D647" t="n">
+        <v>0.01392497354083591</v>
+      </c>
+      <c r="E647" t="n">
+        <v>0.9497570429529463</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="inlineStr">
+        <is>
+          <t>EXC</t>
+        </is>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>sec_EXC_2021-11-03</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>0.01037101526518126</v>
+      </c>
+      <c r="D648" t="n">
+        <v>0.03083581035201614</v>
+      </c>
+      <c r="E648" t="n">
+        <v>0.9454172702093382</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="inlineStr">
+        <is>
+          <t>EXC</t>
+        </is>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>sec_EXC_2021-08-04</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>0.005464431611967704</v>
+      </c>
+      <c r="D649" t="n">
+        <v>0.03068786614369842</v>
+      </c>
+      <c r="E649" t="n">
+        <v>0.9480226109927186</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="inlineStr">
+        <is>
+          <t>EXC</t>
+        </is>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>sec_EXC_2021-05-05</t>
+        </is>
+      </c>
+      <c r="C650" t="n">
+        <v>0.007142718191500063</v>
+      </c>
+      <c r="D650" t="n">
+        <v>0.03635295126173231</v>
+      </c>
+      <c r="E650" t="n">
+        <v>0.9422938403376827</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>sec_AEP_2024-04-30</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>0.02383723237732206</v>
+      </c>
+      <c r="D651" t="n">
+        <v>0.07283910584609067</v>
+      </c>
+      <c r="E651" t="n">
+        <v>0.8675850465528684</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>sec_AEP_2023-11-02</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>0.04583236905071351</v>
+      </c>
+      <c r="D652" t="n">
+        <v>0.06818566989727003</v>
+      </c>
+      <c r="E652" t="n">
+        <v>0.8507592629248982</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>sec_AEP_2023-07-27</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>0.03827781857267488</v>
+      </c>
+      <c r="D653" t="n">
+        <v>0.07069115192521343</v>
+      </c>
+      <c r="E653" t="n">
+        <v>0.8593091603032352</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>sec_AEP_2023-05-04</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>0.02445582898039567</v>
+      </c>
+      <c r="D654" t="n">
+        <v>0.06403341233730316</v>
+      </c>
+      <c r="E654" t="n">
+        <v>0.8777153331041336</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>sec_AEP_2022-10-27</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>0.05360831075571276</v>
+      </c>
+      <c r="D655" t="n">
+        <v>0.07730146842730808</v>
+      </c>
+      <c r="E655" t="n">
+        <v>0.8372098761700444</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>sec_AEP_2022-07-27</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>0.04654197286053502</v>
+      </c>
+      <c r="D656" t="n">
+        <v>0.08085940689019633</v>
+      </c>
+      <c r="E656" t="n">
+        <v>0.8408257142259412</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>sec_AEP_2022-04-28</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>0.02713304871661493</v>
+      </c>
+      <c r="D657" t="n">
+        <v>0.08095693032265666</v>
+      </c>
+      <c r="E657" t="n">
+        <v>0.861872967650204</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>sec_AEP_2021-10-28</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>0.04004139138002256</v>
+      </c>
+      <c r="D658" t="n">
+        <v>0.06567989581987575</v>
+      </c>
+      <c r="E658" t="n">
+        <v>0.8685549822676704</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>sec_AEP_2021-07-22</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>0.03878441379047847</v>
+      </c>
+      <c r="D659" t="n">
+        <v>0.06876552102400565</v>
+      </c>
+      <c r="E659" t="n">
+        <v>0.8614019564933711</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>sec_AEP_2021-04-22</t>
+        </is>
+      </c>
+      <c r="C660" t="n">
+        <v>0.02433485828893434</v>
+      </c>
+      <c r="D660" t="n">
+        <v>0.08299890795744659</v>
+      </c>
+      <c r="E660" t="n">
+        <v>0.8600857973868675</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="inlineStr">
+        <is>
+          <t>CEG</t>
+        </is>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>sec_CEG_2024-05-09</t>
+        </is>
+      </c>
+      <c r="C661" t="n">
+        <v>0.02545902973112791</v>
+      </c>
+      <c r="D661" t="n">
+        <v>0.01440658148389188</v>
+      </c>
+      <c r="E661" t="n">
+        <v>0.9434961869384132</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="inlineStr">
+        <is>
+          <t>CEG</t>
+        </is>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>sec_CEG_2023-11-06</t>
+        </is>
+      </c>
+      <c r="C662" t="n">
+        <v>0.03212830321097271</v>
+      </c>
+      <c r="D662" t="n">
+        <v>0.02485015459390946</v>
+      </c>
+      <c r="E662" t="n">
+        <v>0.9245075302206592</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="inlineStr">
+        <is>
+          <t>CEG</t>
+        </is>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>sec_CEG_2023-08-03</t>
+        </is>
+      </c>
+      <c r="C663" t="n">
+        <v>0.008702823721905374</v>
+      </c>
+      <c r="D663" t="n">
+        <v>0.02372597311801967</v>
+      </c>
+      <c r="E663" t="n">
+        <v>0.9535033623729132</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="inlineStr">
+        <is>
+          <t>CEG</t>
+        </is>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>sec_CEG_2023-05-04</t>
+        </is>
+      </c>
+      <c r="C664" t="n">
+        <v>0.009138715226907988</v>
+      </c>
+      <c r="D664" t="n">
+        <v>0.03207483827262311</v>
+      </c>
+      <c r="E664" t="n">
+        <v>0.9452357962727547</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="inlineStr">
+        <is>
+          <t>CEG</t>
+        </is>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>sec_CEG_2022-11-08</t>
+        </is>
+      </c>
+      <c r="C665" t="n">
+        <v>0.02637919514742099</v>
+      </c>
+      <c r="D665" t="n">
+        <v>0.03664094581485024</v>
+      </c>
+      <c r="E665" t="n">
+        <v>0.9126344252799614</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="inlineStr">
+        <is>
+          <t>CEG</t>
+        </is>
+      </c>
+      <c r="B666" t="inlineStr">
+        <is>
+          <t>sec_CEG_2022-08-04</t>
+        </is>
+      </c>
+      <c r="C666" t="n">
+        <v>0.02819136436246023</v>
+      </c>
+      <c r="D666" t="n">
+        <v>0.03815950528413307</v>
+      </c>
+      <c r="E666" t="n">
+        <v>0.9149769090053415</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="inlineStr">
+        <is>
+          <t>CEG</t>
+        </is>
+      </c>
+      <c r="B667" t="inlineStr">
+        <is>
+          <t>sec_CEG_2022-05-12</t>
+        </is>
+      </c>
+      <c r="C667" t="n">
+        <v>0.02556915248055423</v>
+      </c>
+      <c r="D667" t="n">
+        <v>0.03596806452959703</v>
+      </c>
+      <c r="E667" t="n">
+        <v>0.9187662135763894</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="B668" t="inlineStr">
+        <is>
+          <t>sec_IDXX_2024-05-01</t>
+        </is>
+      </c>
+      <c r="C668" t="n">
+        <v>0</v>
+      </c>
+      <c r="D668" t="n">
+        <v>0.1521745966031001</v>
+      </c>
+      <c r="E668" t="n">
+        <v>0.8379516509863046</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="B669" t="inlineStr">
+        <is>
+          <t>sec_IDXX_2023-11-01</t>
+        </is>
+      </c>
+      <c r="C669" t="n">
+        <v>0</v>
+      </c>
+      <c r="D669" t="n">
+        <v>0.1264522884573255</v>
+      </c>
+      <c r="E669" t="n">
+        <v>0.8488621073109763</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="B670" t="inlineStr">
+        <is>
+          <t>sec_IDXX_2023-08-01</t>
+        </is>
+      </c>
+      <c r="C670" t="n">
+        <v>0</v>
+      </c>
+      <c r="D670" t="n">
+        <v>0.06987128087452479</v>
+      </c>
+      <c r="E670" t="n">
+        <v>0.91808163693973</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="B671" t="inlineStr">
+        <is>
+          <t>sec_IDXX_2023-05-02</t>
+        </is>
+      </c>
+      <c r="C671" t="n">
+        <v>0</v>
+      </c>
+      <c r="D671" t="n">
+        <v>0.1318063650812422</v>
+      </c>
+      <c r="E671" t="n">
+        <v>0.8521050129617963</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="B672" t="inlineStr">
+        <is>
+          <t>sec_IDXX_2022-11-01</t>
+        </is>
+      </c>
+      <c r="C672" t="n">
+        <v>0.1868808269500732</v>
+      </c>
+      <c r="D672" t="n">
+        <v>0.09876886606216431</v>
+      </c>
+      <c r="E672" t="n">
+        <v>0.687516376376152</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="B673" t="inlineStr">
+        <is>
+          <t>sec_IDXX_2022-08-02</t>
+        </is>
+      </c>
+      <c r="C673" t="n">
+        <v>0.2142828333945501</v>
+      </c>
+      <c r="D673" t="n">
+        <v>0.09468413250786918</v>
+      </c>
+      <c r="E673" t="n">
+        <v>0.6573779327528817</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="B674" t="inlineStr">
+        <is>
+          <t>sec_IDXX_2022-05-04</t>
+        </is>
+      </c>
+      <c r="C674" t="n">
+        <v>0.1499677985906601</v>
+      </c>
+      <c r="D674" t="n">
+        <v>0.1858257412910461</v>
+      </c>
+      <c r="E674" t="n">
+        <v>0.6434420853853225</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="B675" t="inlineStr">
+        <is>
+          <t>sec_IDXX_2021-11-02</t>
+        </is>
+      </c>
+      <c r="C675" t="n">
+        <v>0.1666406955983904</v>
+      </c>
+      <c r="D675" t="n">
+        <v>0.1467061440149943</v>
+      </c>
+      <c r="E675" t="n">
+        <v>0.6618332862854004</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="B676" t="inlineStr">
+        <is>
+          <t>sec_IDXX_2021-07-30</t>
+        </is>
+      </c>
+      <c r="C676" t="n">
+        <v>0.1176459929522346</v>
+      </c>
+      <c r="D676" t="n">
+        <v>0.1608632312101476</v>
+      </c>
+      <c r="E676" t="n">
+        <v>0.6965050241526436</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="B677" t="inlineStr">
+        <is>
+          <t>sec_IDXX_2021-05-04</t>
+        </is>
+      </c>
+      <c r="C677" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="D677" t="n">
+        <v>0.1136416643857956</v>
+      </c>
+      <c r="E677" t="n">
+        <v>0.7418393045663834</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="B678" t="inlineStr">
+        <is>
+          <t>sec_EA_2024-02-06</t>
+        </is>
+      </c>
+      <c r="C678" t="n">
+        <v>0.1628010589464576</v>
+      </c>
+      <c r="D678" t="n">
+        <v>0.03965881018512017</v>
+      </c>
+      <c r="E678" t="n">
+        <v>0.7449077262287647</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="B679" t="inlineStr">
+        <is>
+          <t>sec_EA_2023-11-07</t>
+        </is>
+      </c>
+      <c r="C679" t="n">
+        <v>0.11568805993649</v>
+      </c>
+      <c r="D679" t="n">
+        <v>0.02350779374440511</v>
+      </c>
+      <c r="E679" t="n">
+        <v>0.8112487970736989</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="B680" t="inlineStr">
+        <is>
+          <t>sec_EA_2023-08-08</t>
+        </is>
+      </c>
+      <c r="C680" t="n">
+        <v>0.1416839992645944</v>
+      </c>
+      <c r="D680" t="n">
+        <v>0.03866894292359305</v>
+      </c>
+      <c r="E680" t="n">
+        <v>0.7774718946749621</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="B681" t="inlineStr">
+        <is>
+          <t>sec_EA_2023-02-07</t>
+        </is>
+      </c>
+      <c r="C681" t="n">
+        <v>0.1198674771520827</v>
+      </c>
+      <c r="D681" t="n">
+        <v>0.07148361442581055</v>
+      </c>
+      <c r="E681" t="n">
+        <v>0.7670489199577816</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="B682" t="inlineStr">
+        <is>
+          <t>sec_EA_2022-11-08</t>
+        </is>
+      </c>
+      <c r="C682" t="n">
+        <v>0.1510267336852849</v>
+      </c>
+      <c r="D682" t="n">
+        <v>0.07164172036573291</v>
+      </c>
+      <c r="E682" t="n">
+        <v>0.735285363625735</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="B683" t="inlineStr">
+        <is>
+          <t>sec_EA_2022-08-09</t>
+        </is>
+      </c>
+      <c r="C683" t="n">
+        <v>0.1387838862444225</v>
+      </c>
+      <c r="D683" t="n">
+        <v>0.04682967066764832</v>
+      </c>
+      <c r="E683" t="n">
+        <v>0.7809902913214868</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="B684" t="inlineStr">
+        <is>
+          <t>sec_EA_2022-02-08</t>
+        </is>
+      </c>
+      <c r="C684" t="n">
+        <v>0.1524550729039786</v>
+      </c>
+      <c r="D684" t="n">
+        <v>0.04594321052233378</v>
+      </c>
+      <c r="E684" t="n">
+        <v>0.7646108116360678</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="B685" t="inlineStr">
+        <is>
+          <t>sec_EA_2021-11-09</t>
+        </is>
+      </c>
+      <c r="C685" t="n">
+        <v>0.1859198672430856</v>
+      </c>
+      <c r="D685" t="n">
+        <v>0.02346614599227905</v>
+      </c>
+      <c r="E685" t="n">
+        <v>0.7497043305209705</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="B686" t="inlineStr">
+        <is>
+          <t>sec_EA_2021-08-10</t>
+        </is>
+      </c>
+      <c r="C686" t="n">
+        <v>0.1270290554062394</v>
+      </c>
+      <c r="D686" t="n">
+        <v>0.0603723831413206</v>
+      </c>
+      <c r="E686" t="n">
+        <v>0.7807025857700789</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="inlineStr">
+        <is>
+          <t>EA</t>
+        </is>
+      </c>
+      <c r="B687" t="inlineStr">
+        <is>
+          <t>sec_EA_2021-02-08</t>
+        </is>
+      </c>
+      <c r="C687" t="n">
+        <v>0.1331058492625717</v>
+      </c>
+      <c r="D687" t="n">
+        <v>0.02910713688300474</v>
+      </c>
+      <c r="E687" t="n">
+        <v>0.7989245909844002</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="inlineStr">
+        <is>
+          <t>BKR</t>
+        </is>
+      </c>
+      <c r="B688" t="inlineStr">
+        <is>
+          <t>sec_BKR_2024-04-24</t>
+        </is>
+      </c>
+      <c r="C688" t="n">
+        <v>0.2018888992507283</v>
+      </c>
+      <c r="D688" t="n">
+        <v>0.06197226919778964</v>
+      </c>
+      <c r="E688" t="n">
+        <v>0.7087420770307866</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="inlineStr">
+        <is>
+          <t>BKR</t>
+        </is>
+      </c>
+      <c r="B689" t="inlineStr">
+        <is>
+          <t>sec_BKR_2023-10-26</t>
+        </is>
+      </c>
+      <c r="C689" t="n">
+        <v>0.2578859090805053</v>
+      </c>
+      <c r="D689" t="n">
+        <v>0.06072946096721448</v>
+      </c>
+      <c r="E689" t="n">
+        <v>0.6367314777876202</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="inlineStr">
+        <is>
+          <t>BKR</t>
+        </is>
+      </c>
+      <c r="B690" t="inlineStr">
+        <is>
+          <t>sec_BKR_2023-07-19</t>
+        </is>
+      </c>
+      <c r="C690" t="n">
+        <v>0.2548776687459743</v>
+      </c>
+      <c r="D690" t="n">
+        <v>0.08241944554004263</v>
+      </c>
+      <c r="E690" t="n">
+        <v>0.6228425997368833</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="inlineStr">
+        <is>
+          <t>BKR</t>
+        </is>
+      </c>
+      <c r="B691" t="inlineStr">
+        <is>
+          <t>sec_BKR_2023-04-19</t>
+        </is>
+      </c>
+      <c r="C691" t="n">
+        <v>0.2705719277456209</v>
+      </c>
+      <c r="D691" t="n">
+        <v>0.06073708116234123</v>
+      </c>
+      <c r="E691" t="n">
+        <v>0.6399716487178555</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="inlineStr">
+        <is>
+          <t>BKR</t>
+        </is>
+      </c>
+      <c r="B692" t="inlineStr">
+        <is>
+          <t>sec_BKR_2022-10-20</t>
+        </is>
+      </c>
+      <c r="C692" t="n">
+        <v>0.2305990701913834</v>
+      </c>
+      <c r="D692" t="n">
+        <v>0.1968564862012863</v>
+      </c>
+      <c r="E692" t="n">
+        <v>0.5420459753274918</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="inlineStr">
+        <is>
+          <t>BKR</t>
+        </is>
+      </c>
+      <c r="B693" t="inlineStr">
+        <is>
+          <t>sec_BKR_2022-07-21</t>
+        </is>
+      </c>
+      <c r="C693" t="n">
+        <v>0.219286281235364</v>
+      </c>
+      <c r="D693" t="n">
+        <v>0.1994100912493103</v>
+      </c>
+      <c r="E693" t="n">
+        <v>0.5241764777777146</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="inlineStr">
+        <is>
+          <t>BKR</t>
+        </is>
+      </c>
+      <c r="B694" t="inlineStr">
+        <is>
+          <t>sec_BKR_2022-04-20</t>
+        </is>
+      </c>
+      <c r="C694" t="n">
+        <v>0.213030402476971</v>
+      </c>
+      <c r="D694" t="n">
+        <v>0.1190489140840677</v>
+      </c>
+      <c r="E694" t="n">
+        <v>0.6231572299431531</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="inlineStr">
+        <is>
+          <t>BKR</t>
+        </is>
+      </c>
+      <c r="B695" t="inlineStr">
+        <is>
+          <t>sec_BKR_2021-10-22</t>
+        </is>
+      </c>
+      <c r="C695" t="n">
+        <v>0.2607096433639526</v>
+      </c>
+      <c r="D695" t="n">
+        <v>0.1213179093599319</v>
+      </c>
+      <c r="E695" t="n">
+        <v>0.5767786228656768</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="inlineStr">
+        <is>
+          <t>BKR</t>
+        </is>
+      </c>
+      <c r="B696" t="inlineStr">
+        <is>
+          <t>sec_BKR_2021-07-23</t>
+        </is>
+      </c>
+      <c r="C696" t="n">
+        <v>0.225922956909101</v>
+      </c>
+      <c r="D696" t="n">
+        <v>0.1554278571581103</v>
+      </c>
+      <c r="E696" t="n">
+        <v>0.5707215113738149</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="inlineStr">
+        <is>
+          <t>BKR</t>
+        </is>
+      </c>
+      <c r="B697" t="inlineStr">
+        <is>
+          <t>sec_BKR_2021-04-23</t>
+        </is>
+      </c>
+      <c r="C697" t="n">
+        <v>0.1885236573506551</v>
+      </c>
+      <c r="D697" t="n">
+        <v>0.1482881889285811</v>
+      </c>
+      <c r="E697" t="n">
+        <v>0.614899814847004</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B698" t="inlineStr">
+        <is>
+          <t>sec_CTSH_2024-05-02</t>
+        </is>
+      </c>
+      <c r="C698" t="n">
+        <v>0.05535282389655787</v>
+      </c>
+      <c r="D698" t="n">
+        <v>0.07708318617331419</v>
+      </c>
+      <c r="E698" t="n">
+        <v>0.8390172301786732</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B699" t="inlineStr">
+        <is>
+          <t>sec_CTSH_2023-11-02</t>
+        </is>
+      </c>
+      <c r="C699" t="n">
+        <v>0.05658992702566733</v>
+      </c>
+      <c r="D699" t="n">
+        <v>0.07877563151318258</v>
+      </c>
+      <c r="E699" t="n">
+        <v>0.8355911092495355</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B700" t="inlineStr">
+        <is>
+          <t>sec_CTSH_2023-08-03</t>
+        </is>
+      </c>
+      <c r="C700" t="n">
+        <v>0.05723284328333005</v>
+      </c>
+      <c r="D700" t="n">
+        <v>0.09560347127116375</v>
+      </c>
+      <c r="E700" t="n">
+        <v>0.8249672507890597</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B701" t="inlineStr">
+        <is>
+          <t>sec_CTSH_2023-05-04</t>
+        </is>
+      </c>
+      <c r="C701" t="n">
+        <v>0.04804574970990582</v>
+      </c>
+      <c r="D701" t="n">
+        <v>0.06973414294055251</v>
+      </c>
+      <c r="E701" t="n">
+        <v>0.8442474543396893</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B702" t="inlineStr">
+        <is>
+          <t>sec_CTSH_2022-11-03</t>
+        </is>
+      </c>
+      <c r="C702" t="n">
+        <v>0.2403596191443214</v>
+      </c>
+      <c r="D702" t="n">
+        <v>0.08979527571404627</v>
+      </c>
+      <c r="E702" t="n">
+        <v>0.6283289304999418</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B703" t="inlineStr">
+        <is>
+          <t>sec_CTSH_2022-07-28</t>
+        </is>
+      </c>
+      <c r="C703" t="n">
+        <v>0.2219646852949391</v>
+      </c>
+      <c r="D703" t="n">
+        <v>0.1246943478998931</v>
+      </c>
+      <c r="E703" t="n">
+        <v>0.607252732048864</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B704" t="inlineStr">
+        <is>
+          <t>sec_CTSH_2022-05-05</t>
+        </is>
+      </c>
+      <c r="C704" t="n">
+        <v>0.2459594054919917</v>
+      </c>
+      <c r="D704" t="n">
+        <v>0.1694332484791919</v>
+      </c>
+      <c r="E704" t="n">
+        <v>0.5288852038906842</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B705" t="inlineStr">
+        <is>
+          <t>sec_CTSH_2021-10-28</t>
+        </is>
+      </c>
+      <c r="C705" t="n">
+        <v>0.2168201860310375</v>
+      </c>
+      <c r="D705" t="n">
+        <v>0.1550501779369686</v>
+      </c>
+      <c r="E705" t="n">
+        <v>0.5798613826433817</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B706" t="inlineStr">
+        <is>
+          <t>sec_CTSH_2021-07-29</t>
+        </is>
+      </c>
+      <c r="C706" t="n">
+        <v>0.1917794658176935</v>
+      </c>
+      <c r="D706" t="n">
+        <v>0.1953617510066104</v>
+      </c>
+      <c r="E706" t="n">
+        <v>0.5716692734120498</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B707" t="inlineStr">
+        <is>
+          <t>sec_CTSH_2021-05-06</t>
+        </is>
+      </c>
+      <c r="C707" t="n">
+        <v>0.1750719021725398</v>
+      </c>
+      <c r="D707" t="n">
+        <v>0.1532207426204476</v>
+      </c>
+      <c r="E707" t="n">
+        <v>0.6180507124111216</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>VRSK</t>
+        </is>
+      </c>
+      <c r="B708" t="inlineStr">
+        <is>
+          <t>sec_VRSK_2024-05-01</t>
+        </is>
+      </c>
+      <c r="C708" t="n">
+        <v>0</v>
+      </c>
+      <c r="D708" t="n">
+        <v>0</v>
+      </c>
+      <c r="E708" t="n">
+        <v>0.9998660087585449</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>VRSK</t>
+        </is>
+      </c>
+      <c r="B709" t="inlineStr">
+        <is>
+          <t>sec_VRSK_2023-11-01</t>
+        </is>
+      </c>
+      <c r="C709" t="n">
+        <v>0.1862329386529468</v>
+      </c>
+      <c r="D709" t="n">
+        <v>0.01795565684636434</v>
+      </c>
+      <c r="E709" t="n">
+        <v>0.7578957393055871</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>VRSK</t>
+        </is>
+      </c>
+      <c r="B710" t="inlineStr">
+        <is>
+          <t>sec_VRSK_2023-08-02</t>
+        </is>
+      </c>
+      <c r="C710" t="n">
+        <v>0.1504817292528245</v>
+      </c>
+      <c r="D710" t="n">
+        <v>0.007219449987689268</v>
+      </c>
+      <c r="E710" t="n">
+        <v>0.794162473632294</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>VRSK</t>
+        </is>
+      </c>
+      <c r="B711" t="inlineStr">
+        <is>
+          <t>sec_VRSK_2023-05-03</t>
+        </is>
+      </c>
+      <c r="C711" t="n">
+        <v>0.1552805741628011</v>
+      </c>
+      <c r="D711" t="n">
+        <v>0.03695244868596395</v>
+      </c>
+      <c r="E711" t="n">
+        <v>0.7607737978299459</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>VRSK</t>
+        </is>
+      </c>
+      <c r="B712" t="inlineStr">
+        <is>
+          <t>sec_VRSK_2022-11-01</t>
+        </is>
+      </c>
+      <c r="C712" t="n">
+        <v>0.1386596340882151</v>
+      </c>
+      <c r="D712" t="n">
+        <v>0.05860022703806559</v>
+      </c>
+      <c r="E712" t="n">
+        <v>0.7632665121764467</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>VRSK</t>
+        </is>
+      </c>
+      <c r="B713" t="inlineStr">
+        <is>
+          <t>sec_VRSK_2022-08-02</t>
+        </is>
+      </c>
+      <c r="C713" t="n">
+        <v>0.142498767481441</v>
+      </c>
+      <c r="D713" t="n">
+        <v>0.06700782016315292</v>
+      </c>
+      <c r="E713" t="n">
+        <v>0.7531572184731475</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>VRSK</t>
+        </is>
+      </c>
+      <c r="B714" t="inlineStr">
+        <is>
+          <t>sec_VRSK_2022-05-03</t>
+        </is>
+      </c>
+      <c r="C714" t="n">
+        <v>0.1767907343804836</v>
+      </c>
+      <c r="D714" t="n">
+        <v>0.0780506819486618</v>
+      </c>
+      <c r="E714" t="n">
+        <v>0.6937743470072746</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>VRSK</t>
+        </is>
+      </c>
+      <c r="B715" t="inlineStr">
+        <is>
+          <t>sec_VRSK_2021-11-02</t>
+        </is>
+      </c>
+      <c r="C715" t="n">
+        <v>0.1437844836022243</v>
+      </c>
+      <c r="D715" t="n">
+        <v>0.03659550266817582</v>
+      </c>
+      <c r="E715" t="n">
+        <v>0.7646141145840164</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>VRSK</t>
+        </is>
+      </c>
+      <c r="B716" t="inlineStr">
+        <is>
+          <t>sec_VRSK_2021-08-03</t>
+        </is>
+      </c>
+      <c r="C716" t="n">
+        <v>0.165523640314738</v>
+      </c>
+      <c r="D716" t="n">
+        <v>0.07430916527907054</v>
+      </c>
+      <c r="E716" t="n">
+        <v>0.7221757183472316</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>VRSK</t>
+        </is>
+      </c>
+      <c r="B717" t="inlineStr">
+        <is>
+          <t>sec_VRSK_2021-05-04</t>
+        </is>
+      </c>
+      <c r="C717" t="n">
+        <v>0.1321440515694795</v>
+      </c>
+      <c r="D717" t="n">
+        <v>0.03698586902500671</v>
+      </c>
+      <c r="E717" t="n">
+        <v>0.7906552001282021</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>FAST</t>
+        </is>
+      </c>
+      <c r="B718" t="inlineStr">
+        <is>
+          <t>sec_FAST_2024-04-16</t>
+        </is>
+      </c>
+      <c r="C718" t="n">
+        <v>0</v>
+      </c>
+      <c r="D718" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E718" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>FAST</t>
+        </is>
+      </c>
+      <c r="B719" t="inlineStr">
+        <is>
+          <t>sec_FAST_2023-10-17</t>
+        </is>
+      </c>
+      <c r="C719" t="n">
+        <v>0</v>
+      </c>
+      <c r="D719" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E719" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>FAST</t>
+        </is>
+      </c>
+      <c r="B720" t="inlineStr">
+        <is>
+          <t>sec_FAST_2023-07-18</t>
+        </is>
+      </c>
+      <c r="C720" t="n">
+        <v>0</v>
+      </c>
+      <c r="D720" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E720" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>FAST</t>
+        </is>
+      </c>
+      <c r="B721" t="inlineStr">
+        <is>
+          <t>sec_FAST_2023-04-18</t>
+        </is>
+      </c>
+      <c r="C721" t="n">
+        <v>0</v>
+      </c>
+      <c r="D721" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E721" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>FAST</t>
+        </is>
+      </c>
+      <c r="B722" t="inlineStr">
+        <is>
+          <t>sec_FAST_2022-10-18</t>
+        </is>
+      </c>
+      <c r="C722" t="n">
+        <v>0</v>
+      </c>
+      <c r="D722" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E722" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>FAST</t>
+        </is>
+      </c>
+      <c r="B723" t="inlineStr">
+        <is>
+          <t>sec_FAST_2022-07-18</t>
+        </is>
+      </c>
+      <c r="C723" t="n">
+        <v>0</v>
+      </c>
+      <c r="D723" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E723" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>FAST</t>
+        </is>
+      </c>
+      <c r="B724" t="inlineStr">
+        <is>
+          <t>sec_FAST_2022-04-18</t>
+        </is>
+      </c>
+      <c r="C724" t="n">
+        <v>0</v>
+      </c>
+      <c r="D724" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E724" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>FAST</t>
+        </is>
+      </c>
+      <c r="B725" t="inlineStr">
+        <is>
+          <t>sec_FAST_2021-10-15</t>
+        </is>
+      </c>
+      <c r="C725" t="n">
+        <v>0</v>
+      </c>
+      <c r="D725" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E725" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>FAST</t>
+        </is>
+      </c>
+      <c r="B726" t="inlineStr">
+        <is>
+          <t>sec_FAST_2021-07-16</t>
+        </is>
+      </c>
+      <c r="C726" t="n">
+        <v>0</v>
+      </c>
+      <c r="D726" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E726" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>FAST</t>
+        </is>
+      </c>
+      <c r="B727" t="inlineStr">
+        <is>
+          <t>sec_FAST_2021-04-16</t>
+        </is>
+      </c>
+      <c r="C727" t="n">
+        <v>0</v>
+      </c>
+      <c r="D727" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E727" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>CSGP</t>
+        </is>
+      </c>
+      <c r="B728" t="inlineStr">
+        <is>
+          <t>sec_CSGP_2024-04-24</t>
+        </is>
+      </c>
+      <c r="C728" t="n">
+        <v>0.08804670663980338</v>
+      </c>
+      <c r="D728" t="n">
+        <v>0.1226917775268229</v>
+      </c>
+      <c r="E728" t="n">
+        <v>0.7579687609631791</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>CSGP</t>
+        </is>
+      </c>
+      <c r="B729" t="inlineStr">
+        <is>
+          <t>sec_CSGP_2023-10-25</t>
+        </is>
+      </c>
+      <c r="C729" t="n">
+        <v>0.1264517700230634</v>
+      </c>
+      <c r="D729" t="n">
+        <v>0.1860567737508703</v>
+      </c>
+      <c r="E729" t="n">
+        <v>0.6377187503708733</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>CSGP</t>
+        </is>
+      </c>
+      <c r="B730" t="inlineStr">
+        <is>
+          <t>sec_CSGP_2023-07-26</t>
+        </is>
+      </c>
+      <c r="C730" t="n">
+        <v>0.1401165978599141</v>
+      </c>
+      <c r="D730" t="n">
+        <v>0.1703406413092868</v>
+      </c>
+      <c r="E730" t="n">
+        <v>0.6319254482065448</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>CSGP</t>
+        </is>
+      </c>
+      <c r="B731" t="inlineStr">
+        <is>
+          <t>sec_CSGP_2023-04-26</t>
+        </is>
+      </c>
+      <c r="C731" t="n">
+        <v>0.1217369928694608</v>
+      </c>
+      <c r="D731" t="n">
+        <v>0.1601571100845672</v>
+      </c>
+      <c r="E731" t="n">
+        <v>0.6618390956468749</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>CSGP</t>
+        </is>
+      </c>
+      <c r="B732" t="inlineStr">
+        <is>
+          <t>sec_CSGP_2022-10-26</t>
+        </is>
+      </c>
+      <c r="C732" t="n">
+        <v>0.1675843817370755</v>
+      </c>
+      <c r="D732" t="n">
+        <v>0.1197891268696818</v>
+      </c>
+      <c r="E732" t="n">
+        <v>0.6697194888875201</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="inlineStr">
+        <is>
+          <t>CSGP</t>
+        </is>
+      </c>
+      <c r="B733" t="inlineStr">
+        <is>
+          <t>sec_CSGP_2022-07-27</t>
+        </is>
+      </c>
+      <c r="C733" t="n">
+        <v>0.165593211079987</v>
+      </c>
+      <c r="D733" t="n">
+        <v>0.1222919506925932</v>
+      </c>
+      <c r="E733" t="n">
+        <v>0.656262112755171</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="inlineStr">
+        <is>
+          <t>CSGP</t>
+        </is>
+      </c>
+      <c r="B734" t="inlineStr">
+        <is>
+          <t>sec_CSGP_2022-04-28</t>
+        </is>
+      </c>
+      <c r="C734" t="n">
+        <v>0.1379091672897339</v>
+      </c>
+      <c r="D734" t="n">
+        <v>0.07654148149490357</v>
+      </c>
+      <c r="E734" t="n">
+        <v>0.7185963582992554</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="inlineStr">
+        <is>
+          <t>CSGP</t>
+        </is>
+      </c>
+      <c r="B735" t="inlineStr">
+        <is>
+          <t>sec_CSGP_2021-10-27</t>
+        </is>
+      </c>
+      <c r="C735" t="n">
+        <v>0.1912180256994465</v>
+      </c>
+      <c r="D735" t="n">
+        <v>0.08694661191747158</v>
+      </c>
+      <c r="E735" t="n">
+        <v>0.6708618938168392</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="inlineStr">
+        <is>
+          <t>CSGP</t>
+        </is>
+      </c>
+      <c r="B736" t="inlineStr">
+        <is>
+          <t>sec_CSGP_2021-07-28</t>
+        </is>
+      </c>
+      <c r="C736" t="n">
+        <v>0.202905124501337</v>
+      </c>
+      <c r="D736" t="n">
+        <v>0.07428421400770356</v>
+      </c>
+      <c r="E736" t="n">
+        <v>0.6720162931876846</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="inlineStr">
+        <is>
+          <t>CSGP</t>
+        </is>
+      </c>
+      <c r="B737" t="inlineStr">
+        <is>
+          <t>sec_CSGP_2021-04-28</t>
+        </is>
+      </c>
+      <c r="C737" t="n">
+        <v>0.1753675964341235</v>
+      </c>
+      <c r="D737" t="n">
+        <v>0.06904976759383928</v>
+      </c>
+      <c r="E737" t="n">
+        <v>0.7074428369749838</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B738" t="inlineStr">
+        <is>
+          <t>sec_BIIB_2024-04-24</t>
+        </is>
+      </c>
+      <c r="C738" t="n">
+        <v>0.07209387052626837</v>
+      </c>
+      <c r="D738" t="n">
+        <v>0.2387201053755624</v>
+      </c>
+      <c r="E738" t="n">
+        <v>0.6343593324933733</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B739" t="inlineStr">
+        <is>
+          <t>sec_BIIB_2023-11-08</t>
+        </is>
+      </c>
+      <c r="C739" t="n">
+        <v>0.08981316820267708</v>
+      </c>
+      <c r="D739" t="n">
+        <v>0.1793735877160103</v>
+      </c>
+      <c r="E739" t="n">
+        <v>0.6833471194390328</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B740" t="inlineStr">
+        <is>
+          <t>sec_BIIB_2023-07-25</t>
+        </is>
+      </c>
+      <c r="C740" t="n">
+        <v>0.09016263507532352</v>
+      </c>
+      <c r="D740" t="n">
+        <v>0.2354308723500281</v>
+      </c>
+      <c r="E740" t="n">
+        <v>0.6151442701617876</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B741" t="inlineStr">
+        <is>
+          <t>sec_BIIB_2023-04-25</t>
+        </is>
+      </c>
+      <c r="C741" t="n">
+        <v>0.02824984318934954</v>
+      </c>
+      <c r="D741" t="n">
+        <v>0.2730359813341728</v>
+      </c>
+      <c r="E741" t="n">
+        <v>0.6423868869359677</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B742" t="inlineStr">
+        <is>
+          <t>sec_BIIB_2022-10-25</t>
+        </is>
+      </c>
+      <c r="C742" t="n">
+        <v>0.04057030395134208</v>
+      </c>
+      <c r="D742" t="n">
+        <v>0.2230553172298314</v>
+      </c>
+      <c r="E742" t="n">
+        <v>0.6830541310236626</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B743" t="inlineStr">
+        <is>
+          <t>sec_BIIB_2022-07-20</t>
+        </is>
+      </c>
+      <c r="C743" t="n">
+        <v>0.05077701606107562</v>
+      </c>
+      <c r="D743" t="n">
+        <v>0.2625598438670126</v>
+      </c>
+      <c r="E743" t="n">
+        <v>0.6408403298158324</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B744" t="inlineStr">
+        <is>
+          <t>sec_BIIB_2022-05-03</t>
+        </is>
+      </c>
+      <c r="C744" t="n">
+        <v>0.07241077203277155</v>
+      </c>
+      <c r="D744" t="n">
+        <v>0.2850231029463153</v>
+      </c>
+      <c r="E744" t="n">
+        <v>0.5743883142234586</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B745" t="inlineStr">
+        <is>
+          <t>sec_BIIB_2021-10-20</t>
+        </is>
+      </c>
+      <c r="C745" t="n">
+        <v>0.1856132219819462</v>
+      </c>
+      <c r="D745" t="n">
+        <v>0.2920992269235499</v>
+      </c>
+      <c r="E745" t="n">
+        <v>0.4427371095208561</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B746" t="inlineStr">
+        <is>
+          <t>sec_BIIB_2021-07-22</t>
+        </is>
+      </c>
+      <c r="C746" t="n">
+        <v>0.1856132219819462</v>
+      </c>
+      <c r="D746" t="n">
+        <v>0.2920992269235499</v>
+      </c>
+      <c r="E746" t="n">
+        <v>0.4424631104749792</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B747" t="inlineStr">
+        <is>
+          <t>sec_BIIB_2021-04-22</t>
+        </is>
+      </c>
+      <c r="C747" t="n">
+        <v>0.1416750620393192</v>
+      </c>
+      <c r="D747" t="n">
+        <v>0.2925466123749228</v>
+      </c>
+      <c r="E747" t="n">
+        <v>0.4779810344471651</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="inlineStr">
+        <is>
+          <t>XEL</t>
+        </is>
+      </c>
+      <c r="B748" t="inlineStr">
+        <is>
+          <t>sec_XEL_2024-04-25</t>
+        </is>
+      </c>
+      <c r="C748" t="n">
+        <v>0</v>
+      </c>
+      <c r="D748" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E748" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="inlineStr">
+        <is>
+          <t>XEL</t>
+        </is>
+      </c>
+      <c r="B749" t="inlineStr">
+        <is>
+          <t>sec_XEL_2023-10-27</t>
+        </is>
+      </c>
+      <c r="C749" t="n">
+        <v>0</v>
+      </c>
+      <c r="D749" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E749" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="inlineStr">
+        <is>
+          <t>XEL</t>
+        </is>
+      </c>
+      <c r="B750" t="inlineStr">
+        <is>
+          <t>sec_XEL_2023-07-27</t>
+        </is>
+      </c>
+      <c r="C750" t="n">
+        <v>0</v>
+      </c>
+      <c r="D750" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E750" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="inlineStr">
+        <is>
+          <t>XEL</t>
+        </is>
+      </c>
+      <c r="B751" t="inlineStr">
+        <is>
+          <t>sec_XEL_2023-04-27</t>
+        </is>
+      </c>
+      <c r="C751" t="n">
+        <v>0</v>
+      </c>
+      <c r="D751" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E751" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="inlineStr">
+        <is>
+          <t>XEL</t>
+        </is>
+      </c>
+      <c r="B752" t="inlineStr">
+        <is>
+          <t>sec_XEL_2022-10-27</t>
+        </is>
+      </c>
+      <c r="C752" t="n">
+        <v>0</v>
+      </c>
+      <c r="D752" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E752" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="inlineStr">
+        <is>
+          <t>XEL</t>
+        </is>
+      </c>
+      <c r="B753" t="inlineStr">
+        <is>
+          <t>sec_XEL_2022-07-28</t>
+        </is>
+      </c>
+      <c r="C753" t="n">
+        <v>0</v>
+      </c>
+      <c r="D753" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E753" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="inlineStr">
+        <is>
+          <t>XEL</t>
+        </is>
+      </c>
+      <c r="B754" t="inlineStr">
+        <is>
+          <t>sec_XEL_2022-04-28</t>
+        </is>
+      </c>
+      <c r="C754" t="n">
+        <v>0</v>
+      </c>
+      <c r="D754" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E754" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="inlineStr">
+        <is>
+          <t>XEL</t>
+        </is>
+      </c>
+      <c r="B755" t="inlineStr">
+        <is>
+          <t>sec_XEL_2021-10-28</t>
+        </is>
+      </c>
+      <c r="C755" t="n">
+        <v>0</v>
+      </c>
+      <c r="D755" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E755" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" t="inlineStr">
+        <is>
+          <t>XEL</t>
+        </is>
+      </c>
+      <c r="B756" t="inlineStr">
+        <is>
+          <t>sec_XEL_2021-07-29</t>
+        </is>
+      </c>
+      <c r="C756" t="n">
+        <v>0</v>
+      </c>
+      <c r="D756" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E756" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" t="inlineStr">
+        <is>
+          <t>XEL</t>
+        </is>
+      </c>
+      <c r="B757" t="inlineStr">
+        <is>
+          <t>sec_XEL_2021-04-29</t>
+        </is>
+      </c>
+      <c r="C757" t="n">
+        <v>0</v>
+      </c>
+      <c r="D757" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E757" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B758" t="inlineStr">
+        <is>
+          <t>sec_DDOG_2024-05-08</t>
+        </is>
+      </c>
+      <c r="C758" t="n">
+        <v>0.2226053195340293</v>
+      </c>
+      <c r="D758" t="n">
+        <v>0.08440329432487488</v>
+      </c>
+      <c r="E758" t="n">
+        <v>0.6629793056419917</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B759" t="inlineStr">
+        <is>
+          <t>sec_DDOG_2023-11-07</t>
+        </is>
+      </c>
+      <c r="C759" t="n">
+        <v>0.231811820733838</v>
+      </c>
+      <c r="D759" t="n">
+        <v>0.04838143906942228</v>
+      </c>
+      <c r="E759" t="n">
+        <v>0.6671152878098372</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B760" t="inlineStr">
+        <is>
+          <t>sec_DDOG_2023-08-09</t>
+        </is>
+      </c>
+      <c r="C760" t="n">
+        <v>0.1982533151720777</v>
+      </c>
+      <c r="D760" t="n">
+        <v>0.04836062884625093</v>
+      </c>
+      <c r="E760" t="n">
+        <v>0.6958106925458084</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B761" t="inlineStr">
+        <is>
+          <t>sec_DDOG_2023-05-05</t>
+        </is>
+      </c>
+      <c r="C761" t="n">
+        <v>0.1948422176970376</v>
+      </c>
+      <c r="D761" t="n">
+        <v>0.07072089364131291</v>
+      </c>
+      <c r="E761" t="n">
+        <v>0.6576440864139133</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B762" t="inlineStr">
+        <is>
+          <t>sec_DDOG_2022-11-04</t>
+        </is>
+      </c>
+      <c r="C762" t="n">
+        <v>0.1986499581226083</v>
+      </c>
+      <c r="D762" t="n">
+        <v>0.05439048035200252</v>
+      </c>
+      <c r="E762" t="n">
+        <v>0.6925589650176293</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B763" t="inlineStr">
+        <is>
+          <t>sec_DDOG_2022-08-08</t>
+        </is>
+      </c>
+      <c r="C763" t="n">
+        <v>0.2019224924199721</v>
+      </c>
+      <c r="D763" t="n">
+        <v>0.0316465181462905</v>
+      </c>
+      <c r="E763" t="n">
+        <v>0.7278856193318086</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B764" t="inlineStr">
+        <is>
+          <t>sec_DDOG_2022-05-06</t>
+        </is>
+      </c>
+      <c r="C764" t="n">
+        <v>0.1669118114643627</v>
+      </c>
+      <c r="D764" t="n">
+        <v>0.0372577706972758</v>
+      </c>
+      <c r="E764" t="n">
+        <v>0.736039067308108</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B765" t="inlineStr">
+        <is>
+          <t>sec_DDOG_2021-11-05</t>
+        </is>
+      </c>
+      <c r="C765" t="n">
+        <v>0.1511836730419321</v>
+      </c>
+      <c r="D765" t="n">
+        <v>0.03566170182633907</v>
+      </c>
+      <c r="E765" t="n">
+        <v>0.7598057389259338</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B766" t="inlineStr">
+        <is>
+          <t>sec_DDOG_2021-08-06</t>
+        </is>
+      </c>
+      <c r="C766" t="n">
+        <v>0.1698716381128798</v>
+      </c>
+      <c r="D766" t="n">
+        <v>0.02805557276340241</v>
+      </c>
+      <c r="E766" t="n">
+        <v>0.7497187916268694</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" t="inlineStr">
+        <is>
+          <t>DDOG</t>
+        </is>
+      </c>
+      <c r="B767" t="inlineStr">
+        <is>
+          <t>sec_DDOG_2021-05-07</t>
+        </is>
+      </c>
+      <c r="C767" t="n">
+        <v>0.1449423603713512</v>
+      </c>
+      <c r="D767" t="n">
+        <v>0.04653277397155762</v>
+      </c>
+      <c r="E767" t="n">
+        <v>0.7561677090823651</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" t="inlineStr">
+        <is>
+          <t>GEHC</t>
+        </is>
+      </c>
+      <c r="B768" t="inlineStr">
+        <is>
+          <t>sec_GEHC_2024-04-30</t>
+        </is>
+      </c>
+      <c r="C768" t="n">
+        <v>0.1256207035875868</v>
+      </c>
+      <c r="D768" t="n">
+        <v>0.0617421659929999</v>
+      </c>
+      <c r="E768" t="n">
+        <v>0.759740192999785</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" t="inlineStr">
+        <is>
+          <t>GEHC</t>
+        </is>
+      </c>
+      <c r="B769" t="inlineStr">
+        <is>
+          <t>sec_GEHC_2023-10-31</t>
+        </is>
+      </c>
+      <c r="C769" t="n">
+        <v>0.2062430561713453</v>
+      </c>
+      <c r="D769" t="n">
+        <v>0.03188942625837506</v>
+      </c>
+      <c r="E769" t="n">
+        <v>0.7165671345197929</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" t="inlineStr">
+        <is>
+          <t>GEHC</t>
+        </is>
+      </c>
+      <c r="B770" t="inlineStr">
+        <is>
+          <t>sec_GEHC_2023-07-25</t>
+        </is>
+      </c>
+      <c r="C770" t="n">
+        <v>0.2101728596470573</v>
+      </c>
+      <c r="D770" t="n">
+        <v>0.06197461702606895</v>
+      </c>
+      <c r="E770" t="n">
+        <v>0.6930345058441162</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" t="inlineStr">
+        <is>
+          <t>GEHC</t>
+        </is>
+      </c>
+      <c r="B771" t="inlineStr">
+        <is>
+          <t>sec_GEHC_2023-04-25</t>
+        </is>
+      </c>
+      <c r="C771" t="n">
+        <v>0.1696120278632387</v>
+      </c>
+      <c r="D771" t="n">
+        <v>0.04246065401016397</v>
+      </c>
+      <c r="E771" t="n">
+        <v>0.7558086045244907</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="B772" t="inlineStr">
+        <is>
+          <t>sec_ON_2024-04-29</t>
+        </is>
+      </c>
+      <c r="C772" t="n">
+        <v>0.1219168261783879</v>
+      </c>
+      <c r="D772" t="n">
+        <v>0.1873464700652332</v>
+      </c>
+      <c r="E772" t="n">
+        <v>0.6457539702334055</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="B773" t="inlineStr">
+        <is>
+          <t>sec_ON_2023-10-30</t>
+        </is>
+      </c>
+      <c r="C773" t="n">
+        <v>0.1058522952746039</v>
+      </c>
+      <c r="D773" t="n">
+        <v>0.1803670852151636</v>
+      </c>
+      <c r="E773" t="n">
+        <v>0.6713066917576201</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="B774" t="inlineStr">
+        <is>
+          <t>sec_ON_2023-07-31</t>
+        </is>
+      </c>
+      <c r="C774" t="n">
+        <v>0.1726915817412119</v>
+      </c>
+      <c r="D774" t="n">
+        <v>0.08946931078320458</v>
+      </c>
+      <c r="E774" t="n">
+        <v>0.694055500957701</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="B775" t="inlineStr">
+        <is>
+          <t>sec_ON_2023-05-01</t>
+        </is>
+      </c>
+      <c r="C775" t="n">
+        <v>0.1911947524005717</v>
+      </c>
+      <c r="D775" t="n">
+        <v>0.1481661566279151</v>
+      </c>
+      <c r="E775" t="n">
+        <v>0.6235980974002318</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="B776" t="inlineStr">
+        <is>
+          <t>sec_ON_2022-10-31</t>
+        </is>
+      </c>
+      <c r="C776" t="n">
+        <v>0.2605313311020533</v>
+      </c>
+      <c r="D776" t="n">
+        <v>0.03512256095806757</v>
+      </c>
+      <c r="E776" t="n">
+        <v>0.6510974748267068</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="B777" t="inlineStr">
+        <is>
+          <t>sec_ON_2022-08-01</t>
+        </is>
+      </c>
+      <c r="C777" t="n">
+        <v>0.2224253976628894</v>
+      </c>
+      <c r="D777" t="n">
+        <v>0.04082603965486799</v>
+      </c>
+      <c r="E777" t="n">
+        <v>0.6662691824492954</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="B778" t="inlineStr">
+        <is>
+          <t>sec_ON_2022-05-02</t>
+        </is>
+      </c>
+      <c r="C778" t="n">
+        <v>0.2270181402564049</v>
+      </c>
+      <c r="D778" t="n">
+        <v>0.08587753453424998</v>
+      </c>
+      <c r="E778" t="n">
+        <v>0.6243847012519836</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="B779" t="inlineStr">
+        <is>
+          <t>sec_ON_2021-11-01</t>
+        </is>
+      </c>
+      <c r="C779" t="n">
+        <v>0.2413119449410387</v>
+      </c>
+      <c r="D779" t="n">
+        <v>0.06620350768489222</v>
+      </c>
+      <c r="E779" t="n">
+        <v>0.6520072792166023</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="B780" t="inlineStr">
+        <is>
+          <t>sec_ON_2021-08-02</t>
+        </is>
+      </c>
+      <c r="C780" t="n">
+        <v>0.2415433428725418</v>
+      </c>
+      <c r="D780" t="n">
+        <v>0.08812195731669056</v>
+      </c>
+      <c r="E780" t="n">
+        <v>0.6096041074820927</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="B781" t="inlineStr">
+        <is>
+          <t>sec_ON_2021-05-03</t>
+        </is>
+      </c>
+      <c r="C781" t="n">
+        <v>0.182749158806271</v>
+      </c>
+      <c r="D781" t="n">
+        <v>0.09917900462945302</v>
+      </c>
+      <c r="E781" t="n">
+        <v>0.6698113746113248</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" t="inlineStr">
+        <is>
+          <t>TTD</t>
+        </is>
+      </c>
+      <c r="B782" t="inlineStr">
+        <is>
+          <t>sec_TTD_2024-05-10</t>
+        </is>
+      </c>
+      <c r="C782" t="n">
+        <v>0.1024524656034285</v>
+      </c>
+      <c r="D782" t="n">
+        <v>0.04085585378831433</v>
+      </c>
+      <c r="E782" t="n">
+        <v>0.7702144884294079</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" t="inlineStr">
+        <is>
+          <t>TTD</t>
+        </is>
+      </c>
+      <c r="B783" t="inlineStr">
+        <is>
+          <t>sec_TTD_2023-11-09</t>
+        </is>
+      </c>
+      <c r="C783" t="n">
+        <v>0.06142140375940423</v>
+      </c>
+      <c r="D783" t="n">
+        <v>0.06144863523935017</v>
+      </c>
+      <c r="E783" t="n">
+        <v>0.7893714018558201</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" t="inlineStr">
+        <is>
+          <t>TTD</t>
+        </is>
+      </c>
+      <c r="B784" t="inlineStr">
+        <is>
+          <t>sec_TTD_2023-08-09</t>
+        </is>
+      </c>
+      <c r="C784" t="n">
+        <v>0.06847934032741346</v>
+      </c>
+      <c r="D784" t="n">
+        <v>0.04816852745256926</v>
+      </c>
+      <c r="E784" t="n">
+        <v>0.8020806359617334</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" t="inlineStr">
+        <is>
+          <t>TTD</t>
+        </is>
+      </c>
+      <c r="B785" t="inlineStr">
+        <is>
+          <t>sec_TTD_2023-05-10</t>
+        </is>
+      </c>
+      <c r="C785" t="n">
+        <v>0.0961377639323473</v>
+      </c>
+      <c r="D785" t="n">
+        <v>0.06280089635401964</v>
+      </c>
+      <c r="E785" t="n">
+        <v>0.7618421977385879</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" t="inlineStr">
+        <is>
+          <t>TTD</t>
+        </is>
+      </c>
+      <c r="B786" t="inlineStr">
+        <is>
+          <t>sec_TTD_2022-11-09</t>
+        </is>
+      </c>
+      <c r="C786" t="n">
+        <v>0.06673422115189688</v>
+      </c>
+      <c r="D786" t="n">
+        <v>0.06830441440854754</v>
+      </c>
+      <c r="E786" t="n">
+        <v>0.8067531517573765</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" t="inlineStr">
+        <is>
+          <t>TTD</t>
+        </is>
+      </c>
+      <c r="B787" t="inlineStr">
+        <is>
+          <t>sec_TTD_2022-08-09</t>
+        </is>
+      </c>
+      <c r="C787" t="n">
+        <v>0.0826033014517564</v>
+      </c>
+      <c r="D787" t="n">
+        <v>0.04145945310592651</v>
+      </c>
+      <c r="E787" t="n">
+        <v>0.7966630568871131</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" t="inlineStr">
+        <is>
+          <t>TTD</t>
+        </is>
+      </c>
+      <c r="B788" t="inlineStr">
+        <is>
+          <t>sec_TTD_2022-05-10</t>
+        </is>
+      </c>
+      <c r="C788" t="n">
+        <v>0.1071875914931297</v>
+      </c>
+      <c r="D788" t="n">
+        <v>0.03568285597222192</v>
+      </c>
+      <c r="E788" t="n">
+        <v>0.786224507859775</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" t="inlineStr">
+        <is>
+          <t>TTD</t>
+        </is>
+      </c>
+      <c r="B789" t="inlineStr">
+        <is>
+          <t>sec_TTD_2021-11-08</t>
+        </is>
+      </c>
+      <c r="C789" t="n">
+        <v>0.1486253870858086</v>
+      </c>
+      <c r="D789" t="n">
+        <v>0.02671356995900472</v>
+      </c>
+      <c r="E789" t="n">
+        <v>0.7365254892243279</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" t="inlineStr">
+        <is>
+          <t>TTD</t>
+        </is>
+      </c>
+      <c r="B790" t="inlineStr">
+        <is>
+          <t>sec_TTD_2021-08-09</t>
+        </is>
+      </c>
+      <c r="C790" t="n">
+        <v>0.1456570931606823</v>
+      </c>
+      <c r="D790" t="n">
+        <v>0.02775476955705219</v>
+      </c>
+      <c r="E790" t="n">
+        <v>0.7534780841734674</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" t="inlineStr">
+        <is>
+          <t>TTD</t>
+        </is>
+      </c>
+      <c r="B791" t="inlineStr">
+        <is>
+          <t>sec_TTD_2021-05-10</t>
+        </is>
+      </c>
+      <c r="C791" t="n">
+        <v>0.1115734223276377</v>
+      </c>
+      <c r="D791" t="n">
+        <v>0.07038618996739388</v>
+      </c>
+      <c r="E791" t="n">
+        <v>0.7591193784028292</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" t="inlineStr">
+        <is>
+          <t>MRNA</t>
+        </is>
+      </c>
+      <c r="B792" t="inlineStr">
+        <is>
+          <t>sec_MRNA_2024-05-02</t>
+        </is>
+      </c>
+      <c r="C792" t="n">
+        <v>0</v>
+      </c>
+      <c r="D792" t="n">
+        <v>0.9833012819290161</v>
+      </c>
+      <c r="E792" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" t="inlineStr">
+        <is>
+          <t>MRNA</t>
+        </is>
+      </c>
+      <c r="B793" t="inlineStr">
+        <is>
+          <t>sec_MRNA_2023-11-03</t>
+        </is>
+      </c>
+      <c r="C793" t="n">
+        <v>0.1609937352138561</v>
+      </c>
+      <c r="D793" t="n">
+        <v>0.09591922393211952</v>
+      </c>
+      <c r="E793" t="n">
+        <v>0.700686201944456</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" t="inlineStr">
+        <is>
+          <t>MRNA</t>
+        </is>
+      </c>
+      <c r="B794" t="inlineStr">
+        <is>
+          <t>sec_MRNA_2023-08-03</t>
+        </is>
+      </c>
+      <c r="C794" t="n">
+        <v>0.1347715688102386</v>
+      </c>
+      <c r="D794" t="n">
+        <v>0.127541918964947</v>
+      </c>
+      <c r="E794" t="n">
+        <v>0.6644714772701263</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" t="inlineStr">
+        <is>
+          <t>MRNA</t>
+        </is>
+      </c>
+      <c r="B795" t="inlineStr">
+        <is>
+          <t>sec_MRNA_2023-05-04</t>
+        </is>
+      </c>
+      <c r="C795" t="n">
+        <v>0.1221127609411875</v>
+      </c>
+      <c r="D795" t="n">
+        <v>0.09883695415088109</v>
+      </c>
+      <c r="E795" t="n">
+        <v>0.7322456070355007</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" t="inlineStr">
+        <is>
+          <t>MRNA</t>
+        </is>
+      </c>
+      <c r="B796" t="inlineStr">
+        <is>
+          <t>sec_MRNA_2022-11-03</t>
+        </is>
+      </c>
+      <c r="C796" t="n">
+        <v>0.1143563324754888</v>
+      </c>
+      <c r="D796" t="n">
+        <v>0.03355975963852622</v>
+      </c>
+      <c r="E796" t="n">
+        <v>0.8017909104173834</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" t="inlineStr">
+        <is>
+          <t>MRNA</t>
+        </is>
+      </c>
+      <c r="B797" t="inlineStr">
+        <is>
+          <t>sec_MRNA_2022-08-03</t>
+        </is>
+      </c>
+      <c r="C797" t="n">
+        <v>0.1155867555685211</v>
+      </c>
+      <c r="D797" t="n">
+        <v>0.02989873446916279</v>
+      </c>
+      <c r="E797" t="n">
+        <v>0.7977622621937802</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" t="inlineStr">
+        <is>
+          <t>MRNA</t>
+        </is>
+      </c>
+      <c r="B798" t="inlineStr">
+        <is>
+          <t>sec_MRNA_2022-05-04</t>
+        </is>
+      </c>
+      <c r="C798" t="n">
+        <v>0.145426869392395</v>
+      </c>
+      <c r="D798" t="n">
+        <v>0.03134814270755701</v>
+      </c>
+      <c r="E798" t="n">
+        <v>0.7595696297653934</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" t="inlineStr">
+        <is>
+          <t>MRNA</t>
+        </is>
+      </c>
+      <c r="B799" t="inlineStr">
+        <is>
+          <t>sec_MRNA_2021-11-04</t>
+        </is>
+      </c>
+      <c r="C799" t="n">
+        <v>0.09989853659454657</v>
+      </c>
+      <c r="D799" t="n">
+        <v>0.03033348938234809</v>
+      </c>
+      <c r="E799" t="n">
+        <v>0.8228183246794201</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" t="inlineStr">
+        <is>
+          <t>MRNA</t>
+        </is>
+      </c>
+      <c r="B800" t="inlineStr">
+        <is>
+          <t>sec_MRNA_2021-08-05</t>
+        </is>
+      </c>
+      <c r="C800" t="n">
+        <v>0.1049957564100623</v>
+      </c>
+      <c r="D800" t="n">
+        <v>0.03223365871235728</v>
+      </c>
+      <c r="E800" t="n">
+        <v>0.8095785831101239</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" t="inlineStr">
+        <is>
+          <t>MRNA</t>
+        </is>
+      </c>
+      <c r="B801" t="inlineStr">
+        <is>
+          <t>sec_MRNA_2021-05-06</t>
+        </is>
+      </c>
+      <c r="C801" t="n">
+        <v>0.1130090442395979</v>
+      </c>
+      <c r="D801" t="n">
+        <v>0.0356937805491109</v>
+      </c>
+      <c r="E801" t="n">
+        <v>0.8052643383702924</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" t="inlineStr">
+        <is>
+          <t>TEAM</t>
+        </is>
+      </c>
+      <c r="B802" t="inlineStr">
+        <is>
+          <t>sec_TEAM_2024-04-26</t>
+        </is>
+      </c>
+      <c r="C802" t="n">
+        <v>0.1680923515842074</v>
+      </c>
+      <c r="D802" t="n">
+        <v>0.02770357141419063</v>
+      </c>
+      <c r="E802" t="n">
+        <v>0.7526101914663164</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" t="inlineStr">
+        <is>
+          <t>TEAM</t>
+        </is>
+      </c>
+      <c r="B803" t="inlineStr">
+        <is>
+          <t>sec_TEAM_2024-02-02</t>
+        </is>
+      </c>
+      <c r="C803" t="n">
+        <v>0.1479846104048193</v>
+      </c>
+      <c r="D803" t="n">
+        <v>0.04067987529560924</v>
+      </c>
+      <c r="E803" t="n">
+        <v>0.7705732262693346</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" t="inlineStr">
+        <is>
+          <t>TEAM</t>
+        </is>
+      </c>
+      <c r="B804" t="inlineStr">
+        <is>
+          <t>sec_TEAM_2023-11-03</t>
+        </is>
+      </c>
+      <c r="C804" t="n">
+        <v>0.1444090389713799</v>
+      </c>
+      <c r="D804" t="n">
+        <v>0.04423893358289581</v>
+      </c>
+      <c r="E804" t="n">
+        <v>0.7807296237994715</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" t="inlineStr">
+        <is>
+          <t>TEAM</t>
+        </is>
+      </c>
+      <c r="B805" t="inlineStr">
+        <is>
+          <t>sec_TEAM_2023-05-05</t>
+        </is>
+      </c>
+      <c r="C805" t="n">
+        <v>0.09285524765650431</v>
+      </c>
+      <c r="D805" t="n">
+        <v>0.0363515587647756</v>
+      </c>
+      <c r="E805" t="n">
+        <v>0.8306243099768956</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" t="inlineStr">
+        <is>
+          <t>TEAM</t>
+        </is>
+      </c>
+      <c r="B806" t="inlineStr">
+        <is>
+          <t>sec_TEAM_2023-02-03</t>
+        </is>
+      </c>
+      <c r="C806" t="n">
+        <v>0.1048911529174749</v>
+      </c>
+      <c r="D806" t="n">
+        <v>0.02393407622973124</v>
+      </c>
+      <c r="E806" t="n">
+        <v>0.8336056159890216</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" t="inlineStr">
+        <is>
+          <t>TEAM</t>
+        </is>
+      </c>
+      <c r="B807" t="inlineStr">
+        <is>
+          <t>sec_TEAM_2022-11-04</t>
+        </is>
+      </c>
+      <c r="C807" t="n">
+        <v>0.08162600102544833</v>
+      </c>
+      <c r="D807" t="n">
+        <v>0.04343159559394131</v>
+      </c>
+      <c r="E807" t="n">
+        <v>0.8201296840395246</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" t="inlineStr">
+        <is>
+          <t>FANG</t>
+        </is>
+      </c>
+      <c r="B808" t="inlineStr">
+        <is>
+          <t>sec_FANG_2024-05-02</t>
+        </is>
+      </c>
+      <c r="C808" t="n">
+        <v>0.1107332905133565</v>
+      </c>
+      <c r="D808" t="n">
+        <v>0</v>
+      </c>
+      <c r="E808" t="n">
+        <v>0.8864419725206163</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" t="inlineStr">
+        <is>
+          <t>FANG</t>
+        </is>
+      </c>
+      <c r="B809" t="inlineStr">
+        <is>
+          <t>sec_FANG_2023-11-08</t>
+        </is>
+      </c>
+      <c r="C809" t="n">
+        <v>0.03753211302093313</v>
+      </c>
+      <c r="D809" t="n">
+        <v>0.04563253816170029</v>
+      </c>
+      <c r="E809" t="n">
+        <v>0.8948682539070709</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" t="inlineStr">
+        <is>
+          <t>FANG</t>
+        </is>
+      </c>
+      <c r="B810" t="inlineStr">
+        <is>
+          <t>sec_FANG_2023-08-03</t>
+        </is>
+      </c>
+      <c r="C810" t="n">
+        <v>0.02852377125195095</v>
+      </c>
+      <c r="D810" t="n">
+        <v>0.0564382791519165</v>
+      </c>
+      <c r="E810" t="n">
+        <v>0.8899642739977155</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" t="inlineStr">
+        <is>
+          <t>FANG</t>
+        </is>
+      </c>
+      <c r="B811" t="inlineStr">
+        <is>
+          <t>sec_FANG_2023-05-03</t>
+        </is>
+      </c>
+      <c r="C811" t="n">
+        <v>0.04583275150245344</v>
+      </c>
+      <c r="D811" t="n">
+        <v>0.02617330366457012</v>
+      </c>
+      <c r="E811" t="n">
+        <v>0.8866450996466086</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" t="inlineStr">
+        <is>
+          <t>FANG</t>
+        </is>
+      </c>
+      <c r="B812" t="inlineStr">
+        <is>
+          <t>sec_FANG_2022-11-08</t>
+        </is>
+      </c>
+      <c r="C812" t="n">
+        <v>0.1119391875094678</v>
+      </c>
+      <c r="D812" t="n">
+        <v>0.0374278268182134</v>
+      </c>
+      <c r="E812" t="n">
+        <v>0.8183490167181176</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" t="inlineStr">
+        <is>
+          <t>FANG</t>
+        </is>
+      </c>
+      <c r="B813" t="inlineStr">
+        <is>
+          <t>sec_FANG_2022-08-03</t>
+        </is>
+      </c>
+      <c r="C813" t="n">
+        <v>0.06651155021455553</v>
+      </c>
+      <c r="D813" t="n">
+        <v>0.01467562450302972</v>
+      </c>
+      <c r="E813" t="n">
+        <v>0.8897976219654083</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" t="inlineStr">
+        <is>
+          <t>FANG</t>
+        </is>
+      </c>
+      <c r="B814" t="inlineStr">
+        <is>
+          <t>sec_FANG_2022-05-05</t>
+        </is>
+      </c>
+      <c r="C814" t="n">
+        <v>0.05204295214786325</v>
+      </c>
+      <c r="D814" t="n">
+        <v>0.03632282826208299</v>
+      </c>
+      <c r="E814" t="n">
+        <v>0.8828908038395707</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" t="inlineStr">
+        <is>
+          <t>FANG</t>
+        </is>
+      </c>
+      <c r="B815" t="inlineStr">
+        <is>
+          <t>sec_FANG_2021-11-04</t>
+        </is>
+      </c>
+      <c r="C815" t="n">
+        <v>0.06602471222480139</v>
+      </c>
+      <c r="D815" t="n">
+        <v>0.04326603462298711</v>
+      </c>
+      <c r="E815" t="n">
+        <v>0.8569784129659335</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" t="inlineStr">
+        <is>
+          <t>FANG</t>
+        </is>
+      </c>
+      <c r="B816" t="inlineStr">
+        <is>
+          <t>sec_FANG_2021-08-05</t>
+        </is>
+      </c>
+      <c r="C816" t="n">
+        <v>0.06679581984495506</v>
+      </c>
+      <c r="D816" t="n">
+        <v>0.03398710794937916</v>
+      </c>
+      <c r="E816" t="n">
+        <v>0.877153652600753</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" t="inlineStr">
+        <is>
+          <t>FANG</t>
+        </is>
+      </c>
+      <c r="B817" t="inlineStr">
+        <is>
+          <t>sec_FANG_2021-05-07</t>
+        </is>
+      </c>
+      <c r="C817" t="n">
+        <v>0.04792350591445456</v>
+      </c>
+      <c r="D817" t="n">
+        <v>0.08334693555929223</v>
+      </c>
+      <c r="E817" t="n">
+        <v>0.8477628243212797</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" t="inlineStr">
+        <is>
+          <t>ZS</t>
+        </is>
+      </c>
+      <c r="B818" t="inlineStr">
+        <is>
+          <t>sec_ZS_2024-03-06</t>
+        </is>
+      </c>
+      <c r="C818" t="n">
+        <v>0.1492296713074361</v>
+      </c>
+      <c r="D818" t="n">
+        <v>0.04251662342567143</v>
+      </c>
+      <c r="E818" t="n">
+        <v>0.7404589789120231</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" t="inlineStr">
+        <is>
+          <t>ZS</t>
+        </is>
+      </c>
+      <c r="B819" t="inlineStr">
+        <is>
+          <t>sec_ZS_2023-12-06</t>
+        </is>
+      </c>
+      <c r="C819" t="n">
+        <v>0.1386926269756173</v>
+      </c>
+      <c r="D819" t="n">
+        <v>0.05796672853658784</v>
+      </c>
+      <c r="E819" t="n">
+        <v>0.7435012004285488</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" t="inlineStr">
+        <is>
+          <t>ZS</t>
+        </is>
+      </c>
+      <c r="B820" t="inlineStr">
+        <is>
+          <t>sec_ZS_2023-06-07</t>
+        </is>
+      </c>
+      <c r="C820" t="n">
+        <v>0.1576885766770742</v>
+      </c>
+      <c r="D820" t="n">
+        <v>0.05255356349357187</v>
+      </c>
+      <c r="E820" t="n">
+        <v>0.717930599434735</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" t="inlineStr">
+        <is>
+          <t>ZS</t>
+        </is>
+      </c>
+      <c r="B821" t="inlineStr">
+        <is>
+          <t>sec_ZS_2023-03-08</t>
+        </is>
+      </c>
+      <c r="C821" t="n">
+        <v>0.1581731780486948</v>
+      </c>
+      <c r="D821" t="n">
+        <v>0.04980179755126729</v>
+      </c>
+      <c r="E821" t="n">
+        <v>0.7269970871069852</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" t="inlineStr">
+        <is>
+          <t>ZS</t>
+        </is>
+      </c>
+      <c r="B822" t="inlineStr">
+        <is>
+          <t>sec_ZS_2022-12-07</t>
+        </is>
+      </c>
+      <c r="C822" t="n">
+        <v>0.1371134838887623</v>
+      </c>
+      <c r="D822" t="n">
+        <v>0.0508271652672972</v>
+      </c>
+      <c r="E822" t="n">
+        <v>0.7397288986082587</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" t="inlineStr">
+        <is>
+          <t>ZS</t>
+        </is>
+      </c>
+      <c r="B823" t="inlineStr">
+        <is>
+          <t>sec_ZS_2022-06-09</t>
+        </is>
+      </c>
+      <c r="C823" t="n">
+        <v>0.1455595339789535</v>
+      </c>
+      <c r="D823" t="n">
+        <v>0.03860225144660834</v>
+      </c>
+      <c r="E823" t="n">
+        <v>0.7392140238574056</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" t="inlineStr">
+        <is>
+          <t>ZS</t>
+        </is>
+      </c>
+      <c r="B824" t="inlineStr">
+        <is>
+          <t>sec_ZS_2022-03-09</t>
+        </is>
+      </c>
+      <c r="C824" t="n">
+        <v>0.143046331049791</v>
+      </c>
+      <c r="D824" t="n">
+        <v>0.03633038099132367</v>
+      </c>
+      <c r="E824" t="n">
+        <v>0.7409210004913274</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" t="inlineStr">
+        <is>
+          <t>ZS</t>
+        </is>
+      </c>
+      <c r="B825" t="inlineStr">
+        <is>
+          <t>sec_ZS_2021-12-08</t>
+        </is>
+      </c>
+      <c r="C825" t="n">
+        <v>0.1197497852823951</v>
+      </c>
+      <c r="D825" t="n">
+        <v>0.03556477969343012</v>
+      </c>
+      <c r="E825" t="n">
+        <v>0.7610751244154843</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" t="inlineStr">
+        <is>
+          <t>ZS</t>
+        </is>
+      </c>
+      <c r="B826" t="inlineStr">
+        <is>
+          <t>sec_ZS_2021-06-03</t>
+        </is>
+      </c>
+      <c r="C826" t="n">
+        <v>0.1276319658055025</v>
+      </c>
+      <c r="D826" t="n">
+        <v>0.03251523349215003</v>
+      </c>
+      <c r="E826" t="n">
+        <v>0.7623401658938211</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" t="inlineStr">
+        <is>
+          <t>ZS</t>
+        </is>
+      </c>
+      <c r="B827" t="inlineStr">
+        <is>
+          <t>sec_ZS_2021-03-04</t>
+        </is>
+      </c>
+      <c r="C827" t="n">
+        <v>0.1125219265619914</v>
+      </c>
+      <c r="D827" t="n">
+        <v>0.08110603992489801</v>
+      </c>
+      <c r="E827" t="n">
+        <v>0.7312882007032201</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B828" t="inlineStr">
+        <is>
+          <t>sec_DLTR_2023-11-29</t>
+        </is>
+      </c>
+      <c r="C828" t="n">
+        <v>0.2072039438145501</v>
+      </c>
+      <c r="D828" t="n">
+        <v>0.2710611157271327</v>
+      </c>
+      <c r="E828" t="n">
+        <v>0.4428829252719879</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B829" t="inlineStr">
+        <is>
+          <t>sec_DLTR_2023-08-24</t>
+        </is>
+      </c>
+      <c r="C829" t="n">
+        <v>0.2315699179748912</v>
+      </c>
+      <c r="D829" t="n">
+        <v>0.2299274330610757</v>
+      </c>
+      <c r="E829" t="n">
+        <v>0.4383846079255199</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B830" t="inlineStr">
+        <is>
+          <t>sec_DLTR_2023-05-25</t>
+        </is>
+      </c>
+      <c r="C830" t="n">
+        <v>0.1842102152960641</v>
+      </c>
+      <c r="D830" t="n">
+        <v>0.2813040519517566</v>
+      </c>
+      <c r="E830" t="n">
+        <v>0.4682401522757515</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B831" t="inlineStr">
+        <is>
+          <t>sec_DLTR_2022-11-22</t>
+        </is>
+      </c>
+      <c r="C831" t="n">
+        <v>0.328210897672744</v>
+      </c>
+      <c r="D831" t="n">
+        <v>0.229428482907159</v>
+      </c>
+      <c r="E831" t="n">
+        <v>0.3595106136231195</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B832" t="inlineStr">
+        <is>
+          <t>sec_DLTR_2022-08-25</t>
+        </is>
+      </c>
+      <c r="C832" t="n">
+        <v>0.3065875273830486</v>
+      </c>
+      <c r="D832" t="n">
+        <v>0.2357384624346247</v>
+      </c>
+      <c r="E832" t="n">
+        <v>0.3753137563197118</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B833" t="inlineStr">
+        <is>
+          <t>sec_DLTR_2022-05-26</t>
+        </is>
+      </c>
+      <c r="C833" t="n">
+        <v>0.2001870429074323</v>
+      </c>
+      <c r="D833" t="n">
+        <v>0.3124373143101916</v>
+      </c>
+      <c r="E833" t="n">
+        <v>0.426651226149665</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B834" t="inlineStr">
+        <is>
+          <t>sec_DLTR_2021-11-23</t>
+        </is>
+      </c>
+      <c r="C834" t="n">
+        <v>0.2044664602891534</v>
+      </c>
+      <c r="D834" t="n">
+        <v>0.2554672381519216</v>
+      </c>
+      <c r="E834" t="n">
+        <v>0.4560773747157207</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B835" t="inlineStr">
+        <is>
+          <t>sec_DLTR_2021-08-26</t>
+        </is>
+      </c>
+      <c r="C835" t="n">
+        <v>0.2210683728967394</v>
+      </c>
+      <c r="D835" t="n">
+        <v>0.2863670439947219</v>
+      </c>
+      <c r="E835" t="n">
+        <v>0.4145897581463768</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B836" t="inlineStr">
+        <is>
+          <t>sec_DLTR_2021-05-27</t>
+        </is>
+      </c>
+      <c r="C836" t="n">
+        <v>0.2852090907096863</v>
+      </c>
+      <c r="D836" t="n">
+        <v>0.2445818018913269</v>
+      </c>
+      <c r="E836" t="n">
+        <v>0.3933632516860962</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B837" t="inlineStr">
+        <is>
+          <t>sec_DLTR_2020-11-24</t>
+        </is>
+      </c>
+      <c r="C837" t="n">
+        <v>0.3156621927820791</v>
+      </c>
+      <c r="D837" t="n">
+        <v>0.1887689345464932</v>
+      </c>
+      <c r="E837" t="n">
+        <v>0.4061854608415619</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" t="inlineStr">
+        <is>
+          <t>ANSS</t>
+        </is>
+      </c>
+      <c r="B838" t="inlineStr">
+        <is>
+          <t>sec_ANSS_2024-05-01</t>
+        </is>
+      </c>
+      <c r="C838" t="n">
+        <v>0.1029878121519846</v>
+      </c>
+      <c r="D838" t="n">
+        <v>0.07441398217564538</v>
+      </c>
+      <c r="E838" t="n">
+        <v>0.7761374480194516</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" t="inlineStr">
+        <is>
+          <t>ANSS</t>
+        </is>
+      </c>
+      <c r="B839" t="inlineStr">
+        <is>
+          <t>sec_ANSS_2023-11-01</t>
+        </is>
+      </c>
+      <c r="C839" t="n">
+        <v>0.1232927978038788</v>
+      </c>
+      <c r="D839" t="n">
+        <v>0.1020045061906179</v>
+      </c>
+      <c r="E839" t="n">
+        <v>0.7369917551676433</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" t="inlineStr">
+        <is>
+          <t>ANSS</t>
+        </is>
+      </c>
+      <c r="B840" t="inlineStr">
+        <is>
+          <t>sec_ANSS_2023-08-02</t>
+        </is>
+      </c>
+      <c r="C840" t="n">
+        <v>0.143711779680517</v>
+      </c>
+      <c r="D840" t="n">
+        <v>0.06095644914441638</v>
+      </c>
+      <c r="E840" t="n">
+        <v>0.759740885761049</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" t="inlineStr">
+        <is>
+          <t>ANSS</t>
+        </is>
+      </c>
+      <c r="B841" t="inlineStr">
+        <is>
+          <t>sec_ANSS_2023-05-03</t>
+        </is>
+      </c>
+      <c r="C841" t="n">
+        <v>0.1488049167853135</v>
+      </c>
+      <c r="D841" t="n">
+        <v>0.07472024055627677</v>
+      </c>
+      <c r="E841" t="n">
+        <v>0.735582370024461</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" t="inlineStr">
+        <is>
+          <t>ANSS</t>
+        </is>
+      </c>
+      <c r="B842" t="inlineStr">
+        <is>
+          <t>sec_ANSS_2022-11-02</t>
+        </is>
+      </c>
+      <c r="C842" t="n">
+        <v>0.1373679094574078</v>
+      </c>
+      <c r="D842" t="n">
+        <v>0.090127335113733</v>
+      </c>
+      <c r="E842" t="n">
+        <v>0.7303045773181785</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" t="inlineStr">
+        <is>
+          <t>ANSS</t>
+        </is>
+      </c>
+      <c r="B843" t="inlineStr">
+        <is>
+          <t>sec_ANSS_2022-08-03</t>
+        </is>
+      </c>
+      <c r="C843" t="n">
+        <v>0.1402083086556402</v>
+      </c>
+      <c r="D843" t="n">
+        <v>0.08644983809569787</v>
+      </c>
+      <c r="E843" t="n">
+        <v>0.7268954322255891</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" t="inlineStr">
+        <is>
+          <t>ANSS</t>
+        </is>
+      </c>
+      <c r="B844" t="inlineStr">
+        <is>
+          <t>sec_ANSS_2022-05-04</t>
+        </is>
+      </c>
+      <c r="C844" t="n">
+        <v>0.1398599316588545</v>
+      </c>
+      <c r="D844" t="n">
+        <v>0.07621433355111991</v>
+      </c>
+      <c r="E844" t="n">
+        <v>0.7406704009106729</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" t="inlineStr">
+        <is>
+          <t>ANSS</t>
+        </is>
+      </c>
+      <c r="B845" t="inlineStr">
+        <is>
+          <t>sec_ANSS_2021-11-03</t>
+        </is>
+      </c>
+      <c r="C845" t="n">
+        <v>0.1471704224060322</v>
+      </c>
+      <c r="D845" t="n">
+        <v>0.08415209712653325</v>
+      </c>
+      <c r="E845" t="n">
+        <v>0.7265239049648416</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" t="inlineStr">
+        <is>
+          <t>ANSS</t>
+        </is>
+      </c>
+      <c r="B846" t="inlineStr">
+        <is>
+          <t>sec_ANSS_2021-08-04</t>
+        </is>
+      </c>
+      <c r="C846" t="n">
+        <v>0.1961936508164261</v>
+      </c>
+      <c r="D846" t="n">
+        <v>0.01590538160367445</v>
+      </c>
+      <c r="E846" t="n">
+        <v>0.7397075458006426</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" t="inlineStr">
+        <is>
+          <t>ANSS</t>
+        </is>
+      </c>
+      <c r="B847" t="inlineStr">
+        <is>
+          <t>sec_ANSS_2021-05-05</t>
+        </is>
+      </c>
+      <c r="C847" t="n">
+        <v>0.1736313054494769</v>
+      </c>
+      <c r="D847" t="n">
+        <v>0.0772988361732982</v>
+      </c>
+      <c r="E847" t="n">
+        <v>0.7023431101692057</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B848" t="inlineStr">
+        <is>
+          <t>sec_WBD_2024-05-09</t>
+        </is>
+      </c>
+      <c r="C848" t="n">
+        <v>0.05376145669392177</v>
+      </c>
+      <c r="D848" t="n">
+        <v>0.1397817821729751</v>
+      </c>
+      <c r="E848" t="n">
+        <v>0.7640079469907851</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B849" t="inlineStr">
+        <is>
+          <t>sec_WBD_2023-11-08</t>
+        </is>
+      </c>
+      <c r="C849" t="n">
+        <v>0.09948294334763648</v>
+      </c>
+      <c r="D849" t="n">
+        <v>0.09977017673069999</v>
+      </c>
+      <c r="E849" t="n">
+        <v>0.7600907447354105</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B850" t="inlineStr">
+        <is>
+          <t>sec_WBD_2023-08-03</t>
+        </is>
+      </c>
+      <c r="C850" t="n">
+        <v>0.08608111618338404</v>
+      </c>
+      <c r="D850" t="n">
+        <v>0.1076123484888592</v>
+      </c>
+      <c r="E850" t="n">
+        <v>0.7843767654251408</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B851" t="inlineStr">
+        <is>
+          <t>sec_WBD_2023-05-05</t>
+        </is>
+      </c>
+      <c r="C851" t="n">
+        <v>0.05698232467357929</v>
+      </c>
+      <c r="D851" t="n">
+        <v>0.07101376647623177</v>
+      </c>
+      <c r="E851" t="n">
+        <v>0.836045659505404</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B852" t="inlineStr">
+        <is>
+          <t>sec_WBD_2022-11-04</t>
+        </is>
+      </c>
+      <c r="C852" t="n">
+        <v>0.03884261812088807</v>
+      </c>
+      <c r="D852" t="n">
+        <v>0.1445567383931551</v>
+      </c>
+      <c r="E852" t="n">
+        <v>0.7815436720848083</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B853" t="inlineStr">
+        <is>
+          <t>sec_WBD_2022-08-05</t>
+        </is>
+      </c>
+      <c r="C853" t="n">
+        <v>0.0512224775881855</v>
+      </c>
+      <c r="D853" t="n">
+        <v>0.07134216146235085</v>
+      </c>
+      <c r="E853" t="n">
+        <v>0.8400158454304093</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B854" t="inlineStr">
+        <is>
+          <t>sec_WBD_2022-04-26</t>
+        </is>
+      </c>
+      <c r="C854" t="n">
+        <v>0.06192909889533871</v>
+      </c>
+      <c r="D854" t="n">
+        <v>0.08769463955378923</v>
+      </c>
+      <c r="E854" t="n">
+        <v>0.8249039449652688</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B855" t="inlineStr">
+        <is>
+          <t>sec_WBD_2021-11-03</t>
+        </is>
+      </c>
+      <c r="C855" t="n">
+        <v>0.1176863755240585</v>
+      </c>
+      <c r="D855" t="n">
+        <v>0.05416773214484706</v>
+      </c>
+      <c r="E855" t="n">
+        <v>0.7930256001877062</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B856" t="inlineStr">
+        <is>
+          <t>sec_WBD_2021-08-03</t>
+        </is>
+      </c>
+      <c r="C856" t="n">
+        <v>0.07986414385220361</v>
+      </c>
+      <c r="D856" t="n">
+        <v>0.07185485486000304</v>
+      </c>
+      <c r="E856" t="n">
+        <v>0.8197405324095771</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B857" t="inlineStr">
+        <is>
+          <t>sec_WBD_2021-04-29</t>
+        </is>
+      </c>
+      <c r="C857" t="n">
+        <v>0.05874342493491598</v>
+      </c>
+      <c r="D857" t="n">
+        <v>0.1119979885545107</v>
+      </c>
+      <c r="E857" t="n">
+        <v>0.7829665541648865</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" t="inlineStr">
+        <is>
+          <t>EBAY</t>
+        </is>
+      </c>
+      <c r="B858" t="inlineStr">
+        <is>
+          <t>sec_EBAY_2024-05-02</t>
+        </is>
+      </c>
+      <c r="C858" t="n">
+        <v>0.08618978191824521</v>
+      </c>
+      <c r="D858" t="n">
+        <v>0.02940463318544276</v>
+      </c>
+      <c r="E858" t="n">
+        <v>0.8603571504354477</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859" t="inlineStr">
+        <is>
+          <t>EBAY</t>
+        </is>
+      </c>
+      <c r="B859" t="inlineStr">
+        <is>
+          <t>sec_EBAY_2023-11-08</t>
+        </is>
+      </c>
+      <c r="C859" t="n">
+        <v>0.04756562034767794</v>
+      </c>
+      <c r="D859" t="n">
+        <v>0.04704832420291671</v>
+      </c>
+      <c r="E859" t="n">
+        <v>0.8562086238918534</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860" t="inlineStr">
+        <is>
+          <t>EBAY</t>
+        </is>
+      </c>
+      <c r="B860" t="inlineStr">
+        <is>
+          <t>sec_EBAY_2023-07-27</t>
+        </is>
+      </c>
+      <c r="C860" t="n">
+        <v>0.08537457410027</v>
+      </c>
+      <c r="D860" t="n">
+        <v>0.05990553533329683</v>
+      </c>
+      <c r="E860" t="n">
+        <v>0.815630060784957</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861" t="inlineStr">
+        <is>
+          <t>EBAY</t>
+        </is>
+      </c>
+      <c r="B861" t="inlineStr">
+        <is>
+          <t>sec_EBAY_2023-04-27</t>
+        </is>
+      </c>
+      <c r="C861" t="n">
+        <v>0.05236909577721044</v>
+      </c>
+      <c r="D861" t="n">
+        <v>0.02628198658165179</v>
+      </c>
+      <c r="E861" t="n">
+        <v>0.8709997315155832</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862" t="inlineStr">
+        <is>
+          <t>EBAY</t>
+        </is>
+      </c>
+      <c r="B862" t="inlineStr">
+        <is>
+          <t>sec_EBAY_2022-11-03</t>
+        </is>
+      </c>
+      <c r="C862" t="n">
+        <v>0.04217920229607022</v>
+      </c>
+      <c r="D862" t="n">
+        <v>0.1087432091998071</v>
+      </c>
+      <c r="E862" t="n">
+        <v>0.8057543807422992</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863" t="inlineStr">
+        <is>
+          <t>EBAY</t>
+        </is>
+      </c>
+      <c r="B863" t="inlineStr">
+        <is>
+          <t>sec_EBAY_2022-08-04</t>
+        </is>
+      </c>
+      <c r="C863" t="n">
+        <v>0.0374753208210071</v>
+      </c>
+      <c r="D863" t="n">
+        <v>0.08273223415017128</v>
+      </c>
+      <c r="E863" t="n">
+        <v>0.8441700028876463</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864" t="inlineStr">
+        <is>
+          <t>EBAY</t>
+        </is>
+      </c>
+      <c r="B864" t="inlineStr">
+        <is>
+          <t>sec_EBAY_2022-05-05</t>
+        </is>
+      </c>
+      <c r="C864" t="n">
+        <v>0.03858502892886891</v>
+      </c>
+      <c r="D864" t="n">
+        <v>0.1004215717315674</v>
+      </c>
+      <c r="E864" t="n">
+        <v>0.8256586586727815</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865" t="inlineStr">
+        <is>
+          <t>EBAY</t>
+        </is>
+      </c>
+      <c r="B865" t="inlineStr">
+        <is>
+          <t>sec_EBAY_2021-10-28</t>
+        </is>
+      </c>
+      <c r="C865" t="n">
+        <v>0.08786298144947399</v>
+      </c>
+      <c r="D865" t="n">
+        <v>0.0435715453191237</v>
+      </c>
+      <c r="E865" t="n">
+        <v>0.8217919122089039</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="inlineStr">
+        <is>
+          <t>EBAY</t>
+        </is>
+      </c>
+      <c r="B866" t="inlineStr">
+        <is>
+          <t>sec_EBAY_2021-08-12</t>
+        </is>
+      </c>
+      <c r="C866" t="n">
+        <v>0.070298891376566</v>
+      </c>
+      <c r="D866" t="n">
+        <v>0.06611351172129314</v>
+      </c>
+      <c r="E866" t="n">
+        <v>0.8161974725899873</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="inlineStr">
+        <is>
+          <t>EBAY</t>
+        </is>
+      </c>
+      <c r="B867" t="inlineStr">
+        <is>
+          <t>sec_EBAY_2021-04-29</t>
+        </is>
+      </c>
+      <c r="C867" t="n">
+        <v>0.05226916345683011</v>
+      </c>
+      <c r="D867" t="n">
+        <v>0.04668149148876017</v>
+      </c>
+      <c r="E867" t="n">
+        <v>0.8533865301446482</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="inlineStr">
+        <is>
+          <t>SIRI</t>
+        </is>
+      </c>
+      <c r="B868" t="inlineStr">
+        <is>
+          <t>sec_SIRI_2024-04-30</t>
+        </is>
+      </c>
+      <c r="C868" t="n">
+        <v>0.06154224971183261</v>
+      </c>
+      <c r="D868" t="n">
+        <v>0.1471592770483261</v>
+      </c>
+      <c r="E868" t="n">
+        <v>0.7553094894366157</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="inlineStr">
+        <is>
+          <t>SIRI</t>
+        </is>
+      </c>
+      <c r="B869" t="inlineStr">
+        <is>
+          <t>sec_SIRI_2023-10-31</t>
+        </is>
+      </c>
+      <c r="C869" t="n">
+        <v>0.02371038238207499</v>
+      </c>
+      <c r="D869" t="n">
+        <v>0.1379553333918254</v>
+      </c>
+      <c r="E869" t="n">
+        <v>0.7789007119337717</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870" t="inlineStr">
+        <is>
+          <t>SIRI</t>
+        </is>
+      </c>
+      <c r="B870" t="inlineStr">
+        <is>
+          <t>sec_SIRI_2023-08-01</t>
+        </is>
+      </c>
+      <c r="C870" t="n">
+        <v>0.0634277660271217</v>
+      </c>
+      <c r="D870" t="n">
+        <v>0.1384072007804081</v>
+      </c>
+      <c r="E870" t="n">
+        <v>0.7413567555361781</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871" t="inlineStr">
+        <is>
+          <t>SIRI</t>
+        </is>
+      </c>
+      <c r="B871" t="inlineStr">
+        <is>
+          <t>sec_SIRI_2023-04-27</t>
+        </is>
+      </c>
+      <c r="C871" t="n">
+        <v>0.04361433372264955</v>
+      </c>
+      <c r="D871" t="n">
+        <v>0.1416628433436882</v>
+      </c>
+      <c r="E871" t="n">
+        <v>0.7866632405335341</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872" t="inlineStr">
+        <is>
+          <t>SIRI</t>
+        </is>
+      </c>
+      <c r="B872" t="inlineStr">
+        <is>
+          <t>sec_SIRI_2022-11-01</t>
+        </is>
+      </c>
+      <c r="C872" t="n">
+        <v>0.07295204261938731</v>
+      </c>
+      <c r="D872" t="n">
+        <v>0.1141517142454783</v>
+      </c>
+      <c r="E872" t="n">
+        <v>0.7666566280523935</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873" t="inlineStr">
+        <is>
+          <t>SIRI</t>
+        </is>
+      </c>
+      <c r="B873" t="inlineStr">
+        <is>
+          <t>sec_SIRI_2022-07-28</t>
+        </is>
+      </c>
+      <c r="C873" t="n">
+        <v>0.04671219653553433</v>
+      </c>
+      <c r="D873" t="n">
+        <v>0.1283047787017292</v>
+      </c>
+      <c r="E873" t="n">
+        <v>0.7812827117741108</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874" t="inlineStr">
+        <is>
+          <t>SIRI</t>
+        </is>
+      </c>
+      <c r="B874" t="inlineStr">
+        <is>
+          <t>sec_SIRI_2022-04-28</t>
+        </is>
+      </c>
+      <c r="C874" t="n">
+        <v>0.08454696467665375</v>
+      </c>
+      <c r="D874" t="n">
+        <v>0.1253695214380983</v>
+      </c>
+      <c r="E874" t="n">
+        <v>0.7508412809645544</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875" t="inlineStr">
+        <is>
+          <t>SIRI</t>
+        </is>
+      </c>
+      <c r="B875" t="inlineStr">
+        <is>
+          <t>sec_SIRI_2021-10-28</t>
+        </is>
+      </c>
+      <c r="C875" t="n">
+        <v>0.09181308460806659</v>
+      </c>
+      <c r="D875" t="n">
+        <v>0.08168842371352418</v>
+      </c>
+      <c r="E875" t="n">
+        <v>0.7890255775994169</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876" t="inlineStr">
+        <is>
+          <t>SIRI</t>
+        </is>
+      </c>
+      <c r="B876" t="inlineStr">
+        <is>
+          <t>sec_SIRI_2021-07-27</t>
+        </is>
+      </c>
+      <c r="C876" t="n">
+        <v>0.08496151128901711</v>
+      </c>
+      <c r="D876" t="n">
+        <v>0.065463761740093</v>
+      </c>
+      <c r="E876" t="n">
+        <v>0.8129808570765242</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877" t="inlineStr">
+        <is>
+          <t>SIRI</t>
+        </is>
+      </c>
+      <c r="B877" t="inlineStr">
+        <is>
+          <t>sec_SIRI_2021-04-28</t>
+        </is>
+      </c>
+      <c r="C877" t="n">
+        <v>0.09577102203891702</v>
+      </c>
+      <c r="D877" t="n">
+        <v>0.1024940707912184</v>
+      </c>
+      <c r="E877" t="n">
+        <v>0.7563224932918809</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="B878" t="inlineStr">
+        <is>
+          <t>sec_WBA_2024-03-28</t>
+        </is>
+      </c>
+      <c r="C878" t="n">
+        <v>0.1442813858389854</v>
+      </c>
+      <c r="D878" t="n">
+        <v>0.165864384919405</v>
+      </c>
+      <c r="E878" t="n">
+        <v>0.6417059734463691</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="B879" t="inlineStr">
+        <is>
+          <t>sec_WBA_2024-01-04</t>
+        </is>
+      </c>
+      <c r="C879" t="n">
+        <v>0.1044703104279258</v>
+      </c>
+      <c r="D879" t="n">
+        <v>0.1711272922429171</v>
+      </c>
+      <c r="E879" t="n">
+        <v>0.6889960852536288</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="B880" t="inlineStr">
+        <is>
+          <t>sec_WBA_2023-06-27</t>
+        </is>
+      </c>
+      <c r="C880" t="n">
+        <v>0.1446917773712249</v>
+      </c>
+      <c r="D880" t="n">
+        <v>0.156252452305385</v>
+      </c>
+      <c r="E880" t="n">
+        <v>0.6543028737817492</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="B881" t="inlineStr">
+        <is>
+          <t>sec_WBA_2023-03-28</t>
+        </is>
+      </c>
+      <c r="C881" t="n">
+        <v>0.113413954482359</v>
+      </c>
+      <c r="D881" t="n">
+        <v>0.2068721525809344</v>
+      </c>
+      <c r="E881" t="n">
+        <v>0.6315046387560227</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="B882" t="inlineStr">
+        <is>
+          <t>sec_WBA_2023-01-05</t>
+        </is>
+      </c>
+      <c r="C882" t="n">
+        <v>0.1152497529983521</v>
+      </c>
+      <c r="D882" t="n">
+        <v>0.1327535184946927</v>
+      </c>
+      <c r="E882" t="n">
+        <v>0.7029498237552065</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="B883" t="inlineStr">
+        <is>
+          <t>sec_WBA_2022-06-30</t>
+        </is>
+      </c>
+      <c r="C883" t="n">
+        <v>0.1473825791707406</v>
+      </c>
+      <c r="D883" t="n">
+        <v>0.1495555587686025</v>
+      </c>
+      <c r="E883" t="n">
+        <v>0.6614019074119054</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="B884" t="inlineStr">
+        <is>
+          <t>sec_WBA_2022-03-31</t>
+        </is>
+      </c>
+      <c r="C884" t="n">
+        <v>0.2355133731557865</v>
+      </c>
+      <c r="D884" t="n">
+        <v>0.07243563370271162</v>
+      </c>
+      <c r="E884" t="n">
+        <v>0.627669268184238</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="B885" t="inlineStr">
+        <is>
+          <t>sec_WBA_2022-01-06</t>
+        </is>
+      </c>
+      <c r="C885" t="n">
+        <v>0.1674692994210778</v>
+      </c>
+      <c r="D885" t="n">
+        <v>0.05488751792326206</v>
+      </c>
+      <c r="E885" t="n">
+        <v>0.7406612612852236</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="B886" t="inlineStr">
+        <is>
+          <t>sec_WBA_2021-07-01</t>
+        </is>
+      </c>
+      <c r="C886" t="n">
+        <v>0.1857290335537232</v>
+      </c>
+      <c r="D886" t="n">
+        <v>0.1048975476284617</v>
+      </c>
+      <c r="E886" t="n">
+        <v>0.6754482996832464</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887" t="inlineStr">
+        <is>
+          <t>WBA</t>
+        </is>
+      </c>
+      <c r="B887" t="inlineStr">
+        <is>
+          <t>sec_WBA_2021-03-31</t>
+        </is>
+      </c>
+      <c r="C887" t="n">
+        <v>0.1060582636505045</v>
+      </c>
+      <c r="D887" t="n">
+        <v>0.2008852968292852</v>
+      </c>
+      <c r="E887" t="n">
+        <v>0.6503889009516727</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888" t="inlineStr">
+        <is>
+          <t>ZM</t>
+        </is>
+      </c>
+      <c r="B888" t="inlineStr">
+        <is>
+          <t>sec_ZM_2023-11-21</t>
+        </is>
+      </c>
+      <c r="C888" t="n">
+        <v>0.1648493577604709</v>
+      </c>
+      <c r="D888" t="n">
+        <v>0.112119448573693</v>
+      </c>
+      <c r="E888" t="n">
+        <v>0.6739839496819869</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889" t="inlineStr">
+        <is>
+          <t>ZM</t>
+        </is>
+      </c>
+      <c r="B889" t="inlineStr">
+        <is>
+          <t>sec_ZM_2023-08-23</t>
+        </is>
+      </c>
+      <c r="C889" t="n">
+        <v>0.1533950774857167</v>
+      </c>
+      <c r="D889" t="n">
+        <v>0.09802392426501499</v>
+      </c>
+      <c r="E889" t="n">
+        <v>0.7114391822493478</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890" t="inlineStr">
+        <is>
+          <t>ZM</t>
+        </is>
+      </c>
+      <c r="B890" t="inlineStr">
+        <is>
+          <t>sec_ZM_2023-05-25</t>
+        </is>
+      </c>
+      <c r="C890" t="n">
+        <v>0.1590978137652079</v>
+      </c>
+      <c r="D890" t="n">
+        <v>0.06494326750437418</v>
+      </c>
+      <c r="E890" t="n">
+        <v>0.7359244171778361</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891" t="inlineStr">
+        <is>
+          <t>ZM</t>
+        </is>
+      </c>
+      <c r="B891" t="inlineStr">
+        <is>
+          <t>sec_ZM_2022-11-23</t>
+        </is>
+      </c>
+      <c r="C891" t="n">
+        <v>0.1547471671989284</v>
+      </c>
+      <c r="D891" t="n">
+        <v>0.08807474682011555</v>
+      </c>
+      <c r="E891" t="n">
+        <v>0.7048085792777464</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892" t="inlineStr">
+        <is>
+          <t>ZM</t>
+        </is>
+      </c>
+      <c r="B892" t="inlineStr">
+        <is>
+          <t>sec_ZM_2022-08-24</t>
+        </is>
+      </c>
+      <c r="C892" t="n">
+        <v>0.1854660052519578</v>
+      </c>
+      <c r="D892" t="n">
+        <v>0.07006871765786475</v>
+      </c>
+      <c r="E892" t="n">
+        <v>0.6778146637665047</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893" t="inlineStr">
+        <is>
+          <t>ZM</t>
+        </is>
+      </c>
+      <c r="B893" t="inlineStr">
+        <is>
+          <t>sec_ZM_2022-05-25</t>
+        </is>
+      </c>
+      <c r="C893" t="n">
+        <v>0.1705323908780072</v>
+      </c>
+      <c r="D893" t="n">
+        <v>0.07239543425070273</v>
+      </c>
+      <c r="E893" t="n">
+        <v>0.7234296903416917</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894" t="inlineStr">
+        <is>
+          <t>ZM</t>
+        </is>
+      </c>
+      <c r="B894" t="inlineStr">
+        <is>
+          <t>sec_ZM_2021-11-23</t>
+        </is>
+      </c>
+      <c r="C894" t="n">
+        <v>0.2001836246319031</v>
+      </c>
+      <c r="D894" t="n">
+        <v>0.02193973774320624</v>
+      </c>
+      <c r="E894" t="n">
+        <v>0.7218102665429704</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895" t="inlineStr">
+        <is>
+          <t>ZM</t>
+        </is>
+      </c>
+      <c r="B895" t="inlineStr">
+        <is>
+          <t>sec_ZM_2021-08-31</t>
+        </is>
+      </c>
+      <c r="C895" t="n">
+        <v>0.1512938433223301</v>
+      </c>
+      <c r="D895" t="n">
+        <v>0.0322750449180603</v>
+      </c>
+      <c r="E895" t="n">
+        <v>0.7515403873390621</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896" t="inlineStr">
+        <is>
+          <t>ZM</t>
+        </is>
+      </c>
+      <c r="B896" t="inlineStr">
+        <is>
+          <t>sec_ZM_2021-06-02</t>
+        </is>
+      </c>
+      <c r="C896" t="n">
+        <v>0.1683605694108539</v>
+      </c>
+      <c r="D896" t="n">
+        <v>0.02583524833122889</v>
+      </c>
+      <c r="E896" t="n">
+        <v>0.7377809766266081</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897" t="inlineStr">
+        <is>
+          <t>ZM</t>
+        </is>
+      </c>
+      <c r="B897" t="inlineStr">
+        <is>
+          <t>sec_ZM_2020-12-04</t>
+        </is>
+      </c>
+      <c r="C897" t="n">
+        <v>0.1816000426593034</v>
+      </c>
+      <c r="D897" t="n">
+        <v>0.04269607365131378</v>
+      </c>
+      <c r="E897" t="n">
+        <v>0.7109487244616384</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898" t="inlineStr">
+        <is>
+          <t>ILMN</t>
+        </is>
+      </c>
+      <c r="B898" t="inlineStr">
+        <is>
+          <t>sec_ILMN_2024-05-03</t>
+        </is>
+      </c>
+      <c r="C898" t="n">
+        <v>0</v>
+      </c>
+      <c r="D898" t="n">
+        <v>0</v>
+      </c>
+      <c r="E898" t="n">
+        <v>0.9998660087585449</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899" t="inlineStr">
+        <is>
+          <t>ILMN</t>
+        </is>
+      </c>
+      <c r="B899" t="inlineStr">
+        <is>
+          <t>sec_ILMN_2023-11-13</t>
+        </is>
+      </c>
+      <c r="C899" t="n">
+        <v>0</v>
+      </c>
+      <c r="D899" t="n">
+        <v>0</v>
+      </c>
+      <c r="E899" t="n">
+        <v>0.9999125003814697</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900" t="inlineStr">
+        <is>
+          <t>ILMN</t>
+        </is>
+      </c>
+      <c r="B900" t="inlineStr">
+        <is>
+          <t>sec_ILMN_2023-08-10</t>
+        </is>
+      </c>
+      <c r="C900" t="n">
+        <v>0</v>
+      </c>
+      <c r="D900" t="n">
+        <v>0</v>
+      </c>
+      <c r="E900" t="n">
+        <v>0.9999125003814697</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901" t="inlineStr">
+        <is>
+          <t>ILMN</t>
+        </is>
+      </c>
+      <c r="B901" t="inlineStr">
+        <is>
+          <t>sec_ILMN_2023-05-05</t>
+        </is>
+      </c>
+      <c r="C901" t="n">
+        <v>0</v>
+      </c>
+      <c r="D901" t="n">
+        <v>0</v>
+      </c>
+      <c r="E901" t="n">
+        <v>0.9998039603233337</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902" t="inlineStr">
+        <is>
+          <t>ILMN</t>
+        </is>
+      </c>
+      <c r="B902" t="inlineStr">
+        <is>
+          <t>sec_ILMN_2022-11-04</t>
+        </is>
+      </c>
+      <c r="C902" t="n">
+        <v>0</v>
+      </c>
+      <c r="D902" t="n">
+        <v>0</v>
+      </c>
+      <c r="E902" t="n">
+        <v>0.9999117851257324</v>
+      </c>
+    </row>
+    <row r="903">
+      <c r="A903" t="inlineStr">
+        <is>
+          <t>ILMN</t>
+        </is>
+      </c>
+      <c r="B903" t="inlineStr">
+        <is>
+          <t>sec_ILMN_2022-08-11</t>
+        </is>
+      </c>
+      <c r="C903" t="n">
+        <v>0</v>
+      </c>
+      <c r="D903" t="n">
+        <v>0</v>
+      </c>
+      <c r="E903" t="n">
+        <v>0.9998660087585449</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904" t="inlineStr">
+        <is>
+          <t>ILMN</t>
+        </is>
+      </c>
+      <c r="B904" t="inlineStr">
+        <is>
+          <t>sec_ILMN_2022-05-05</t>
+        </is>
+      </c>
+      <c r="C904" t="n">
+        <v>0</v>
+      </c>
+      <c r="D904" t="n">
+        <v>0</v>
+      </c>
+      <c r="E904" t="n">
+        <v>0.9996916055679321</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905" t="inlineStr">
+        <is>
+          <t>ILMN</t>
+        </is>
+      </c>
+      <c r="B905" t="inlineStr">
+        <is>
+          <t>sec_ILMN_2021-11-05</t>
+        </is>
+      </c>
+      <c r="C905" t="n">
+        <v>0</v>
+      </c>
+      <c r="D905" t="n">
+        <v>0</v>
+      </c>
+      <c r="E905" t="n">
+        <v>0.9998655319213867</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906" t="inlineStr">
+        <is>
+          <t>ILMN</t>
+        </is>
+      </c>
+      <c r="B906" t="inlineStr">
+        <is>
+          <t>sec_ILMN_2021-08-06</t>
+        </is>
+      </c>
+      <c r="C906" t="n">
+        <v>0</v>
+      </c>
+      <c r="D906" t="n">
+        <v>0</v>
+      </c>
+      <c r="E906" t="n">
+        <v>0.9998703002929688</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907" t="inlineStr">
+        <is>
+          <t>ILMN</t>
+        </is>
+      </c>
+      <c r="B907" t="inlineStr">
+        <is>
+          <t>sec_ILMN_2021-04-28</t>
+        </is>
+      </c>
+      <c r="C907" t="n">
+        <v>0</v>
+      </c>
+      <c r="D907" t="n">
+        <v>0</v>
+      </c>
+      <c r="E907" t="n">
+        <v>0.9997709393501282</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908" t="inlineStr">
+        <is>
+          <t>ALGN</t>
+        </is>
+      </c>
+      <c r="B908" t="inlineStr">
+        <is>
+          <t>sec_ALGN_2024-05-03</t>
+        </is>
+      </c>
+      <c r="C908" t="n">
+        <v>0.1570710422177064</v>
+      </c>
+      <c r="D908" t="n">
+        <v>0.0889946865408044</v>
+      </c>
+      <c r="E908" t="n">
+        <v>0.7333165360124487</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909" t="inlineStr">
+        <is>
+          <t>ALGN</t>
+        </is>
+      </c>
+      <c r="B909" t="inlineStr">
+        <is>
+          <t>sec_ALGN_2023-11-03</t>
+        </is>
+      </c>
+      <c r="C909" t="n">
+        <v>0.1485852998691601</v>
+      </c>
+      <c r="D909" t="n">
+        <v>0.1451660977615105</v>
+      </c>
+      <c r="E909" t="n">
+        <v>0.6674736522056244</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910" t="inlineStr">
+        <is>
+          <t>ALGN</t>
+        </is>
+      </c>
+      <c r="B910" t="inlineStr">
+        <is>
+          <t>sec_ALGN_2023-08-04</t>
+        </is>
+      </c>
+      <c r="C910" t="n">
+        <v>0.142875971513636</v>
+      </c>
+      <c r="D910" t="n">
+        <v>0.1248381825054393</v>
+      </c>
+      <c r="E910" t="n">
+        <v>0.6867831370409797</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911" t="inlineStr">
+        <is>
+          <t>ALGN</t>
+        </is>
+      </c>
+      <c r="B911" t="inlineStr">
+        <is>
+          <t>sec_ALGN_2023-05-05</t>
+        </is>
+      </c>
+      <c r="C911" t="n">
+        <v>0.04825747718936518</v>
+      </c>
+      <c r="D911" t="n">
+        <v>0.1961345625551123</v>
+      </c>
+      <c r="E911" t="n">
+        <v>0.711200370600349</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912" t="inlineStr">
+        <is>
+          <t>ALGN</t>
+        </is>
+      </c>
+      <c r="B912" t="inlineStr">
+        <is>
+          <t>sec_ALGN_2022-11-04</t>
+        </is>
+      </c>
+      <c r="C912" t="n">
+        <v>0.094994374267433</v>
+      </c>
+      <c r="D912" t="n">
+        <v>0.2289976574804472</v>
+      </c>
+      <c r="E912" t="n">
+        <v>0.6165487299794736</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913" t="inlineStr">
+        <is>
+          <t>ALGN</t>
+        </is>
+      </c>
+      <c r="B913" t="inlineStr">
+        <is>
+          <t>sec_ALGN_2022-08-04</t>
+        </is>
+      </c>
+      <c r="C913" t="n">
+        <v>0.1434548079282388</v>
+      </c>
+      <c r="D913" t="n">
+        <v>0.1793460003260909</v>
+      </c>
+      <c r="E913" t="n">
+        <v>0.62473673656069</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914" t="inlineStr">
+        <is>
+          <t>ALGN</t>
+        </is>
+      </c>
+      <c r="B914" t="inlineStr">
+        <is>
+          <t>sec_ALGN_2022-05-05</t>
+        </is>
+      </c>
+      <c r="C914" t="n">
+        <v>0.1974344299985217</v>
+      </c>
+      <c r="D914" t="n">
+        <v>0.1354739139606426</v>
+      </c>
+      <c r="E914" t="n">
+        <v>0.6344580766442535</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915" t="inlineStr">
+        <is>
+          <t>ALGN</t>
+        </is>
+      </c>
+      <c r="B915" t="inlineStr">
+        <is>
+          <t>sec_ALGN_2021-11-02</t>
+        </is>
+      </c>
+      <c r="C915" t="n">
+        <v>0.2515669956803322</v>
+      </c>
+      <c r="D915" t="n">
+        <v>0.06717163324356079</v>
+      </c>
+      <c r="E915" t="n">
+        <v>0.644095566123724</v>
+      </c>
+    </row>
+    <row r="916">
+      <c r="A916" t="inlineStr">
+        <is>
+          <t>ALGN</t>
+        </is>
+      </c>
+      <c r="B916" t="inlineStr">
+        <is>
+          <t>sec_ALGN_2021-08-04</t>
+        </is>
+      </c>
+      <c r="C916" t="n">
+        <v>0.2514830183338475</v>
+      </c>
+      <c r="D916" t="n">
+        <v>0.05326900772146276</v>
+      </c>
+      <c r="E916" t="n">
+        <v>0.6526558858317297</v>
+      </c>
+    </row>
+    <row r="917">
+      <c r="A917" t="inlineStr">
+        <is>
+          <t>ALGN</t>
+        </is>
+      </c>
+      <c r="B917" t="inlineStr">
+        <is>
+          <t>sec_ALGN_2021-05-05</t>
+        </is>
+      </c>
+      <c r="C917" t="n">
+        <v>0.2236128724538363</v>
+      </c>
+      <c r="D917" t="n">
+        <v>0.05638757485609788</v>
+      </c>
+      <c r="E917" t="n">
+        <v>0.6745086816641001</v>
+      </c>
+    </row>
+    <row r="918">
+      <c r="A918" t="inlineStr">
+        <is>
+          <t>ENPH</t>
+        </is>
+      </c>
+      <c r="B918" t="inlineStr">
+        <is>
+          <t>sec_ENPH_2024-04-23</t>
+        </is>
+      </c>
+      <c r="C918" t="n">
+        <v>0.1067488134884443</v>
+      </c>
+      <c r="D918" t="n">
+        <v>0.1970591124941091</v>
+      </c>
+      <c r="E918" t="n">
+        <v>0.6384006191472538</v>
+      </c>
+    </row>
+    <row r="919">
+      <c r="A919" t="inlineStr">
+        <is>
+          <t>ENPH</t>
+        </is>
+      </c>
+      <c r="B919" t="inlineStr">
+        <is>
+          <t>sec_ENPH_2023-10-26</t>
+        </is>
+      </c>
+      <c r="C919" t="n">
+        <v>0.1914293243643943</v>
+      </c>
+      <c r="D919" t="n">
+        <v>0.08910630124338557</v>
+      </c>
+      <c r="E919" t="n">
+        <v>0.6714086465621263</v>
+      </c>
+    </row>
+    <row r="920">
+      <c r="A920" t="inlineStr">
+        <is>
+          <t>ENPH</t>
+        </is>
+      </c>
+      <c r="B920" t="inlineStr">
+        <is>
+          <t>sec_ENPH_2023-07-27</t>
+        </is>
+      </c>
+      <c r="C920" t="n">
+        <v>0.1998416213102119</v>
+      </c>
+      <c r="D920" t="n">
+        <v>0.04646481885466465</v>
+      </c>
+      <c r="E920" t="n">
+        <v>0.701398677604143</v>
+      </c>
+    </row>
+    <row r="921">
+      <c r="A921" t="inlineStr">
+        <is>
+          <t>ENPH</t>
+        </is>
+      </c>
+      <c r="B921" t="inlineStr">
+        <is>
+          <t>sec_ENPH_2023-04-25</t>
+        </is>
+      </c>
+      <c r="C921" t="n">
+        <v>0.2889151173095181</v>
+      </c>
+      <c r="D921" t="n">
+        <v>0.05102733879873197</v>
+      </c>
+      <c r="E921" t="n">
+        <v>0.6007103577052078</v>
+      </c>
+    </row>
+    <row r="922">
+      <c r="A922" t="inlineStr">
+        <is>
+          <t>ENPH</t>
+        </is>
+      </c>
+      <c r="B922" t="inlineStr">
+        <is>
+          <t>sec_ENPH_2022-10-25</t>
+        </is>
+      </c>
+      <c r="C922" t="n">
+        <v>0.2349085813643886</v>
+      </c>
+      <c r="D922" t="n">
+        <v>0.07357203463713329</v>
+      </c>
+      <c r="E922" t="n">
+        <v>0.6150735739399406</v>
+      </c>
+    </row>
+    <row r="923">
+      <c r="A923" t="inlineStr">
+        <is>
+          <t>ENPH</t>
+        </is>
+      </c>
+      <c r="B923" t="inlineStr">
+        <is>
+          <t>sec_ENPH_2022-07-26</t>
+        </is>
+      </c>
+      <c r="C923" t="n">
+        <v>0.1834711637548221</v>
+      </c>
+      <c r="D923" t="n">
+        <v>0.05621259122766474</v>
+      </c>
+      <c r="E923" t="n">
+        <v>0.6854406723412134</v>
+      </c>
+    </row>
+    <row r="924">
+      <c r="A924" t="inlineStr">
+        <is>
+          <t>ENPH</t>
+        </is>
+      </c>
+      <c r="B924" t="inlineStr">
+        <is>
+          <t>sec_ENPH_2022-04-26</t>
+        </is>
+      </c>
+      <c r="C924" t="n">
+        <v>0.1362291540898068</v>
+      </c>
+      <c r="D924" t="n">
+        <v>0.1148428639895479</v>
+      </c>
+      <c r="E924" t="n">
+        <v>0.6744225067152104</v>
+      </c>
+    </row>
+    <row r="925">
+      <c r="A925" t="inlineStr">
+        <is>
+          <t>ENPH</t>
+        </is>
+      </c>
+      <c r="B925" t="inlineStr">
+        <is>
+          <t>sec_ENPH_2021-10-26</t>
+        </is>
+      </c>
+      <c r="C925" t="n">
+        <v>0.1597802590151302</v>
+      </c>
+      <c r="D925" t="n">
+        <v>0.05853422010531191</v>
+      </c>
+      <c r="E925" t="n">
+        <v>0.7284404796655061</v>
+      </c>
+    </row>
+    <row r="926">
+      <c r="A926" t="inlineStr">
+        <is>
+          <t>ENPH</t>
+        </is>
+      </c>
+      <c r="B926" t="inlineStr">
+        <is>
+          <t>sec_ENPH_2021-07-27</t>
+        </is>
+      </c>
+      <c r="C926" t="n">
+        <v>0.1741331760622874</v>
+      </c>
+      <c r="D926" t="n">
+        <v>0.03560618843351092</v>
+      </c>
+      <c r="E926" t="n">
+        <v>0.7536907807117751</v>
+      </c>
+    </row>
+    <row r="927">
+      <c r="A927" t="inlineStr">
+        <is>
+          <t>ENPH</t>
+        </is>
+      </c>
+      <c r="B927" t="inlineStr">
+        <is>
+          <t>sec_ENPH_2021-04-27</t>
+        </is>
+      </c>
+      <c r="C927" t="n">
+        <v>0.1343357742411419</v>
+      </c>
+      <c r="D927" t="n">
+        <v>0.06649797113196364</v>
+      </c>
+      <c r="E927" t="n">
+        <v>0.7537613794641588</v>
+      </c>
+    </row>
+    <row r="928">
+      <c r="A928" t="inlineStr">
+        <is>
+          <t>LCID</t>
+        </is>
+      </c>
+      <c r="B928" t="inlineStr">
+        <is>
+          <t>sec_LCID_2024-05-06</t>
+        </is>
+      </c>
+      <c r="C928" t="n">
+        <v>0.05910387209483555</v>
+      </c>
+      <c r="D928" t="n">
+        <v>0.076807829950537</v>
+      </c>
+      <c r="E928" t="n">
+        <v>0.8321098163723946</v>
+      </c>
+    </row>
+    <row r="929">
+      <c r="A929" t="inlineStr">
+        <is>
+          <t>LCID</t>
+        </is>
+      </c>
+      <c r="B929" t="inlineStr">
+        <is>
+          <t>sec_LCID_2023-11-07</t>
+        </is>
+      </c>
+      <c r="C929" t="n">
+        <v>0.05548170600274597</v>
+      </c>
+      <c r="D929" t="n">
+        <v>0.1216928928789466</v>
+      </c>
+      <c r="E929" t="n">
+        <v>0.7602075049371431</v>
+      </c>
+    </row>
+    <row r="930">
+      <c r="A930" t="inlineStr">
+        <is>
+          <t>LCID</t>
+        </is>
+      </c>
+      <c r="B930" t="inlineStr">
+        <is>
+          <t>sec_LCID_2023-08-07</t>
+        </is>
+      </c>
+      <c r="C930" t="n">
+        <v>0.06283360598038654</v>
+      </c>
+      <c r="D930" t="n">
+        <v>0.1105445738957853</v>
+      </c>
+      <c r="E930" t="n">
+        <v>0.784345956481233</v>
+      </c>
+    </row>
+    <row r="931">
+      <c r="A931" t="inlineStr">
+        <is>
+          <t>LCID</t>
+        </is>
+      </c>
+      <c r="B931" t="inlineStr">
+        <is>
+          <t>sec_LCID_2023-05-08</t>
+        </is>
+      </c>
+      <c r="C931" t="n">
+        <v>0.06519632914970661</v>
+      </c>
+      <c r="D931" t="n">
+        <v>0.1326026286201916</v>
+      </c>
+      <c r="E931" t="n">
+        <v>0.7550958244279883</v>
+      </c>
+    </row>
+    <row r="932">
+      <c r="A932" t="inlineStr">
+        <is>
+          <t>LCID</t>
+        </is>
+      </c>
+      <c r="B932" t="inlineStr">
+        <is>
+          <t>sec_LCID_2022-11-08</t>
+        </is>
+      </c>
+      <c r="C932" t="n">
+        <v>0.0554770948710265</v>
+      </c>
+      <c r="D932" t="n">
+        <v>0.1099532263146506</v>
+      </c>
+      <c r="E932" t="n">
+        <v>0.7900066210163964</v>
+      </c>
+    </row>
+    <row r="933">
+      <c r="A933" t="inlineStr">
+        <is>
+          <t>LCID</t>
+        </is>
+      </c>
+      <c r="B933" t="inlineStr">
+        <is>
+          <t>sec_LCID_2022-08-03</t>
+        </is>
+      </c>
+      <c r="C933" t="n">
+        <v>0.1154785341229932</v>
+      </c>
+      <c r="D933" t="n">
+        <v>0.07105961476249256</v>
+      </c>
+      <c r="E933" t="n">
+        <v>0.761842775618893</v>
+      </c>
+    </row>
+    <row r="934">
+      <c r="A934" t="inlineStr">
+        <is>
+          <t>LCID</t>
+        </is>
+      </c>
+      <c r="B934" t="inlineStr">
+        <is>
+          <t>sec_LCID_2022-05-05</t>
+        </is>
+      </c>
+      <c r="C934" t="n">
+        <v>0.07928776577727435</v>
+      </c>
+      <c r="D934" t="n">
+        <v>0.1054757519127571</v>
+      </c>
+      <c r="E934" t="n">
+        <v>0.7557250547082457</v>
+      </c>
+    </row>
+    <row r="935">
+      <c r="A935" t="inlineStr">
+        <is>
+          <t>LCID</t>
+        </is>
+      </c>
+      <c r="B935" t="inlineStr">
+        <is>
+          <t>sec_LCID_2021-11-15</t>
+        </is>
+      </c>
+      <c r="C935" t="n">
+        <v>0.07577503869930903</v>
+      </c>
+      <c r="D935" t="n">
+        <v>0.05722856596112251</v>
+      </c>
+      <c r="E935" t="n">
+        <v>0.808341434597969</v>
+      </c>
+    </row>
+    <row r="936">
+      <c r="A936" t="inlineStr">
+        <is>
+          <t>LCID</t>
+        </is>
+      </c>
+      <c r="B936" t="inlineStr">
+        <is>
+          <t>sec_LCID_2021-08-16</t>
+        </is>
+      </c>
+      <c r="C936" t="n">
+        <v>0</v>
+      </c>
+      <c r="D936" t="n">
+        <v>0.04357060446189</v>
+      </c>
+      <c r="E936" t="n">
+        <v>0.9233391789289621</v>
+      </c>
+    </row>
+    <row r="937">
+      <c r="A937" t="inlineStr">
+        <is>
+          <t>LCID</t>
+        </is>
+      </c>
+      <c r="B937" t="inlineStr">
+        <is>
+          <t>sec_LCID_2021-06-01</t>
+        </is>
+      </c>
+      <c r="C937" t="n">
+        <v>0.01537564455294142</v>
+      </c>
+      <c r="D937" t="n">
+        <v>0.0756907953935511</v>
+      </c>
+      <c r="E937" t="n">
+        <v>0.8794606608503005</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
